--- a/house_view.xlsx
+++ b/house_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="255" windowWidth="27795" windowHeight="11190" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="27795" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="кухня" sheetId="1" r:id="rId1"/>
@@ -1265,23 +1265,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,16 +1277,19 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,52 +1298,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,88 +1394,112 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,91 +1583,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1685,6 +1676,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1724,60 +1769,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1823,6 +1814,93 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,91 +1916,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,9 +1934,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1988,12 +1979,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2004,21 +2001,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2030,6 +2012,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2043,6 +2034,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2348,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6:Y7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2398,35 +2398,35 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="111" t="s">
+      <c r="I3" s="312"/>
+      <c r="J3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="113" t="s">
+      <c r="K3" s="63"/>
+      <c r="L3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="95" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="96"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -2447,35 +2447,35 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="97" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="98"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="97" t="s">
+      <c r="I4" s="81"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74"/>
-      <c r="S4" s="99" t="s">
+      <c r="M4" s="81"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="77"/>
+      <c r="S4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="101" t="s">
+      <c r="T4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="99" t="s">
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="55" t="s">
         <v>15</v>
       </c>
       <c r="Y4" s="11"/>
@@ -2489,31 +2489,31 @@
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="61" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="61" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="84"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="100"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="9"/>
       <c r="AC5" s="13"/>
@@ -2526,17 +2526,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="L6" s="117" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="L6" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="118"/>
-      <c r="P6" s="71" t="s">
+      <c r="M6" s="71"/>
+      <c r="P6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="72"/>
+      <c r="Q6" s="89"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="9"/>
       <c r="AC6" s="15"/>
@@ -2548,21 +2548,21 @@
       <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="89" t="s">
+      <c r="D7" s="91"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="119"/>
-      <c r="M7" s="120"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="84"/>
-      <c r="U7" s="91" t="s">
+      <c r="L7" s="72"/>
+      <c r="M7" s="73"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="79"/>
+      <c r="U7" s="96" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="11"/>
@@ -2576,31 +2576,31 @@
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="90"/>
-      <c r="J8" s="55" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="95"/>
+      <c r="J8" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="N8" s="93" t="s">
+      <c r="K8" s="99"/>
+      <c r="N8" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="94"/>
+      <c r="O8" s="105"/>
       <c r="Q8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="92"/>
-      <c r="V8" s="61" t="s">
+      <c r="U8" s="97"/>
+      <c r="V8" s="313" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="62"/>
+      <c r="W8" s="314"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="9"/>
       <c r="AC8" s="18"/>
@@ -2612,45 +2612,45 @@
       <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="69" t="s">
+      <c r="I9" s="64"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="71" t="s">
+      <c r="O9" s="111"/>
+      <c r="P9" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="55" t="s">
+      <c r="Q9" s="89"/>
+      <c r="R9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="77"/>
-      <c r="T9" s="55" t="s">
+      <c r="S9" s="99"/>
+      <c r="T9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="55" t="s">
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="56"/>
+      <c r="Y9" s="106"/>
       <c r="Z9" s="9"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -2661,29 +2661,29 @@
       <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="100"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="101"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="107"/>
       <c r="Z10" s="9"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -2694,29 +2694,29 @@
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="103"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="108"/>
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2792,6 +2792,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="L9:M11"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:W11"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="J8:K11"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="L5:M5"/>
@@ -2808,20 +2822,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:W5"/>
     <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="J8:K11"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="L9:M11"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:W11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2923,26 +2923,26 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="177" t="s">
+      <c r="M4" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="177" t="s">
+      <c r="R4" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="S4" s="178"/>
+      <c r="S4" s="175"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="V4" s="72"/>
-      <c r="W4" s="71" t="s">
+      <c r="V4" s="89"/>
+      <c r="W4" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="X4" s="72"/>
+      <c r="X4" s="89"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
@@ -2962,18 +2962,18 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="203"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="203"/>
       <c r="Q5" s="47"/>
-      <c r="R5" s="275"/>
-      <c r="S5" s="277"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="275"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -2993,10 +2993,10 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="275"/>
-      <c r="N6" s="276"/>
-      <c r="O6" s="276"/>
-      <c r="P6" s="276"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="274"/>
+      <c r="P6" s="274"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
@@ -3022,25 +3022,25 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="177" t="s">
+      <c r="L7" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="217"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
       <c r="Q7" s="47"/>
-      <c r="R7" s="71" t="s">
+      <c r="R7" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="S7" s="72"/>
+      <c r="S7" s="89"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="71" t="s">
+      <c r="U7" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="72"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="89"/>
       <c r="Y7" s="29"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
@@ -3050,30 +3050,30 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="285" t="s">
+      <c r="C8" s="282" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="74"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="74"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="77"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
@@ -3085,32 +3085,32 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="221"/>
-      <c r="P9" s="221"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
       <c r="Q9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="114"/>
       <c r="T9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="76"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="114"/>
       <c r="Y9" s="50" t="s">
         <v>61</v>
       </c>
@@ -3125,14 +3125,14 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="286"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
       <c r="K10" s="45"/>
       <c r="L10" s="27"/>
       <c r="M10" s="30"/>
@@ -3158,14 +3158,14 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="288"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="285"/>
       <c r="K11" s="47"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -3356,36 +3356,36 @@
       <c r="C4" s="304" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="177" t="s">
+      <c r="I4" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="178"/>
-      <c r="K4" s="177" t="s">
+      <c r="J4" s="175"/>
+      <c r="K4" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="178"/>
+      <c r="L4" s="175"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="25"/>
-      <c r="Q4" s="116" t="s">
+      <c r="Q4" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="116"/>
+      <c r="R4" s="69"/>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="250" t="s">
+      <c r="X4" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="250"/>
+      <c r="Y4" s="260"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -3395,32 +3395,32 @@
         <v>2</v>
       </c>
       <c r="C5" s="305"/>
-      <c r="D5" s="180"/>
+      <c r="D5" s="177"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="307" t="s">
+      <c r="G5" s="301" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="180"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="177"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="307" t="s">
+      <c r="N5" s="301" t="s">
         <v>117</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="250"/>
-      <c r="Y5" s="250"/>
+      <c r="X5" s="260"/>
+      <c r="Y5" s="260"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -3430,28 +3430,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="305"/>
-      <c r="D6" s="180"/>
+      <c r="D6" s="177"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="308"/>
+      <c r="G6" s="302"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="179"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="179"/>
-      <c r="L6" s="180"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="177"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="308"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="22"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="250"/>
-      <c r="Y6" s="250"/>
+      <c r="X6" s="260"/>
+      <c r="Y6" s="260"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
@@ -3461,32 +3461,32 @@
         <v>4</v>
       </c>
       <c r="C7" s="305"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="177"/>
+      <c r="E7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="308"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="302"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="180"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="177"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="101" t="s">
+      <c r="N7" s="302"/>
+      <c r="O7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="250"/>
-      <c r="Y7" s="250"/>
+      <c r="X7" s="260"/>
+      <c r="Y7" s="260"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
@@ -3496,30 +3496,30 @@
         <v>5</v>
       </c>
       <c r="C8" s="305"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="308"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="302"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="277"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="275"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="101" t="s">
+      <c r="N8" s="302"/>
+      <c r="O8" s="154"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="250"/>
-      <c r="Y8" s="250"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="260"/>
+      <c r="Y8" s="260"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -3529,30 +3529,30 @@
         <v>6</v>
       </c>
       <c r="C9" s="305"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="308"/>
-      <c r="H9" s="177" t="s">
+      <c r="D9" s="177"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="217"/>
-      <c r="J9" s="217"/>
-      <c r="K9" s="217"/>
-      <c r="L9" s="217"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="308"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="250"/>
-      <c r="Y9" s="250"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="302"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="260"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -3564,28 +3564,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="305"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="308"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="308"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="250"/>
-      <c r="Y10" s="250"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="302"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="260"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -3597,28 +3597,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="306"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="289"/>
-      <c r="G11" s="309"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="301"/>
-      <c r="T11" s="288"/>
-      <c r="U11" s="288"/>
-      <c r="V11" s="288"/>
-      <c r="W11" s="289"/>
-      <c r="X11" s="250"/>
-      <c r="Y11" s="250"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="303"/>
+      <c r="O11" s="300"/>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="300"/>
+      <c r="T11" s="285"/>
+      <c r="U11" s="285"/>
+      <c r="V11" s="285"/>
+      <c r="W11" s="286"/>
+      <c r="X11" s="260"/>
+      <c r="Y11" s="260"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,6 +3696,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="I4:J8"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="Q4:R11"/>
     <mergeCell ref="X4:Y11"/>
     <mergeCell ref="G5:G11"/>
     <mergeCell ref="N5:N11"/>
@@ -3703,10 +3707,6 @@
     <mergeCell ref="O7:P11"/>
     <mergeCell ref="S8:W11"/>
     <mergeCell ref="H9:M11"/>
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="I4:J8"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="Q4:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3717,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
@@ -3799,34 +3799,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103"/>
-      <c r="N4" s="101" t="s">
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="N4" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="103"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="84"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="84"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="310" t="s">
+      <c r="X4" s="307" t="s">
         <v>57</v>
       </c>
       <c r="Y4" s="29"/>
@@ -3839,26 +3839,26 @@
         <v>2</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="143"/>
+      <c r="S5" s="154"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="156"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="311"/>
+      <c r="X5" s="308"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -3874,20 +3874,20 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="143"/>
+      <c r="S6" s="154"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="156"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
@@ -3900,38 +3900,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="101" t="s">
+      <c r="E7" s="83"/>
+      <c r="F7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="102"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="106"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="102"/>
-      <c r="P7" s="101" t="s">
+      <c r="O7" s="83"/>
+      <c r="P7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="Q7" s="102"/>
+      <c r="Q7" s="83"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="106"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="101" t="s">
+      <c r="X7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="Y7" s="312"/>
+      <c r="Y7" s="309"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
@@ -3941,28 +3941,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="155"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="313"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="310"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -3972,32 +3972,32 @@
         <v>6</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="101" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="155"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="101" t="s">
+      <c r="S9" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="313"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="310"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
@@ -4007,28 +4007,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="142"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="106"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="87"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="313"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="310"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -4040,28 +4040,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="289"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="288"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="288"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="300"/>
+      <c r="I11" s="285"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="285"/>
+      <c r="L11" s="285"/>
+      <c r="M11" s="286"/>
+      <c r="N11" s="300"/>
+      <c r="O11" s="285"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="285"/>
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="301"/>
-      <c r="Y11" s="314"/>
+      <c r="X11" s="300"/>
+      <c r="Y11" s="311"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,13 +4573,13 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="147"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
@@ -4610,22 +4610,22 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="137"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="150"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
@@ -4645,26 +4645,26 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="144" t="s">
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="157" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="K5" s="146" t="s">
+      <c r="K5" s="159" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="22"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="143"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="156"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="146" t="s">
+      <c r="R5" s="159" t="s">
         <v>47</v>
       </c>
       <c r="S5" s="22"/>
@@ -4673,7 +4673,7 @@
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
-      <c r="Y5" s="148" t="s">
+      <c r="Y5" s="118" t="s">
         <v>46</v>
       </c>
       <c r="Z5" s="28"/>
@@ -4686,31 +4686,31 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="145"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="147"/>
+      <c r="K6" s="160"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="156"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="147"/>
+      <c r="R6" s="160"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="72"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="89"/>
       <c r="X6" s="22"/>
-      <c r="Y6" s="149"/>
+      <c r="Y6" s="119"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -4721,33 +4721,33 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="152" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="153"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="106"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="158" t="s">
+      <c r="T7" s="78"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="159"/>
+      <c r="Y7" s="129"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -4758,13 +4758,13 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -4779,8 +4779,8 @@
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="161"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -4791,37 +4791,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="125"/>
       <c r="J9" s="22"/>
       <c r="K9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="77"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="99"/>
       <c r="R9" s="19" t="s">
         <v>50</v>
       </c>
       <c r="S9" s="22"/>
-      <c r="T9" s="117" t="s">
+      <c r="T9" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="161"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="134"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="131"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -4832,33 +4832,33 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="128" t="s">
+      <c r="C10" s="148"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="129"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="128" t="s">
+      <c r="K10" s="142"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="129"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="161"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="136"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="131"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -4869,29 +4869,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="130"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="163"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="133"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4969,6 +4969,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:G11"/>
+    <mergeCell ref="M4:P7"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="R5:R6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="T6:W7"/>
     <mergeCell ref="H7:I11"/>
@@ -4977,11 +4982,6 @@
     <mergeCell ref="T9:W11"/>
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="R10:S11"/>
-    <mergeCell ref="C3:G11"/>
-    <mergeCell ref="M4:P7"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5113,44 +5113,44 @@
         <v>2</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="184" t="s">
+      <c r="L5" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="186" t="s">
+      <c r="M5" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="187"/>
-      <c r="O5" s="128" t="s">
+      <c r="N5" s="184"/>
+      <c r="O5" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="184" t="s">
+      <c r="P5" s="142"/>
+      <c r="Q5" s="181" t="s">
         <v>57</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="116" t="s">
+      <c r="U5" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="116"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="158" t="s">
+      <c r="X5" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="159"/>
+      <c r="Y5" s="129"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -5162,28 +5162,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="191"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="185"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="189"/>
+      <c r="Q6" s="182"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="161"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="131"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -5204,10 +5204,10 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="194"/>
+      <c r="M7" s="186"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="191"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -5215,8 +5215,8 @@
       <c r="U7" s="34"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="165"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="162"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -5227,11 +5227,11 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="166" t="s">
+      <c r="C8" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="33"/>
@@ -5247,10 +5247,10 @@
       <c r="N8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="55" t="s">
+      <c r="O8" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="77"/>
+      <c r="P8" s="99"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -5270,41 +5270,41 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="117" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="118"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="171" t="s">
+      <c r="M9" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="172"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="78"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="77"/>
+      <c r="S9" s="99"/>
       <c r="T9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="177" t="s">
+      <c r="U9" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="178"/>
+      <c r="V9" s="175"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="158" t="s">
+      <c r="X9" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="159"/>
+      <c r="Y9" s="129"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -5315,30 +5315,30 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="91" t="s">
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="173"/>
-      <c r="N10" s="174"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="78"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="78"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="101"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="179"/>
-      <c r="V10" s="180"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="177"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="161"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="131"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -5349,31 +5349,31 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="79"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="173"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="103"/>
       <c r="Q11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="59"/>
-      <c r="S11" s="79"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="103"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="181"/>
-      <c r="V11" s="182"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="179"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="163"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="133"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,18 +5568,18 @@
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="184" t="s">
+      <c r="G4" s="181" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="103"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="184" t="s">
+      <c r="N4" s="181" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="22"/>
@@ -5607,28 +5607,28 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="185"/>
+      <c r="G5" s="182"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="143"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="156"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="185"/>
+      <c r="N5" s="182"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="71" t="s">
+      <c r="P5" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="71" t="s">
+      <c r="U5" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="72"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="89"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
@@ -5640,30 +5640,30 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="208" t="s">
+      <c r="C6" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="94"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="143"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="84"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="84"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="79"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
@@ -5675,18 +5675,18 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="210" t="s">
+      <c r="C7" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="172"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="169"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="106"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5710,11 +5710,11 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="174"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="171"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -5722,21 +5722,21 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="91" t="s">
+      <c r="O8" s="96" t="s">
         <v>46</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="177" t="s">
+      <c r="T8" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="217"/>
-      <c r="V8" s="217"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="218"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="201"/>
+      <c r="W8" s="201"/>
+      <c r="X8" s="201"/>
+      <c r="Y8" s="202"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -5747,37 +5747,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="214"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="128" t="s">
+      <c r="C9" s="198"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="223"/>
-      <c r="M9" s="129"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="142"/>
       <c r="N9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="92"/>
+      <c r="O9" s="97"/>
       <c r="P9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="158" t="s">
+      <c r="Q9" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="195"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="179"/>
-      <c r="U9" s="219"/>
-      <c r="V9" s="219"/>
-      <c r="W9" s="219"/>
-      <c r="X9" s="219"/>
-      <c r="Y9" s="220"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="203"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="204"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -5788,33 +5788,33 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="200" t="s">
+      <c r="C10" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="224"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="202" t="s">
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="208"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="203"/>
-      <c r="P10" s="204"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="219"/>
-      <c r="V10" s="219"/>
-      <c r="W10" s="219"/>
-      <c r="X10" s="219"/>
-      <c r="Y10" s="220"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="203"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="204"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -5825,29 +5825,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="225"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="199"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="221"/>
-      <c r="Y11" s="222"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="209"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="221"/>
+      <c r="P11" s="222"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="213"/>
+      <c r="S11" s="214"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="205"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="206"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6031,32 +6031,32 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="86"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="186" t="s">
+      <c r="S4" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="233"/>
-      <c r="U4" s="233"/>
-      <c r="V4" s="187"/>
+      <c r="T4" s="230"/>
+      <c r="U4" s="230"/>
+      <c r="V4" s="184"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="29"/>
@@ -6070,30 +6070,30 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="231"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="197"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="212"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="181" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="143"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="156"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="184" t="s">
+      <c r="P5" s="181" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="188"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="137"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="150"/>
       <c r="W5" s="22"/>
       <c r="X5" s="18" t="s">
         <v>61</v>
@@ -6109,26 +6109,26 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="197"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="212"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="185"/>
+      <c r="I6" s="182"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="143"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="156"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="185"/>
+      <c r="P6" s="182"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="137"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="150"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
@@ -6142,28 +6142,28 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="197"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="22"/>
       <c r="H7" s="33"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="106"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="137"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="150"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="144" t="s">
+      <c r="X7" s="157" t="s">
         <v>46</v>
       </c>
       <c r="Y7" s="29"/>
@@ -6177,10 +6177,10 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="197"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="212"/>
       <c r="G8" s="22"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
@@ -6188,10 +6188,10 @@
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="97" t="s">
+      <c r="L8" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="98"/>
+      <c r="M8" s="81"/>
       <c r="N8" s="18" t="s">
         <v>61</v>
       </c>
@@ -6199,14 +6199,14 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="150"/>
       <c r="W8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="145"/>
+      <c r="X8" s="158"/>
       <c r="Y8" s="19" t="s">
         <v>61</v>
       </c>
@@ -6220,41 +6220,41 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="235" t="s">
+      <c r="C9" s="228"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="118"/>
-      <c r="J9" s="202" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="117" t="s">
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="91" t="s">
+      <c r="Q9" s="71"/>
+      <c r="R9" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="188"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="171" t="s">
+      <c r="S9" s="185"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="227"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="224"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -6265,29 +6265,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="231"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="239"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="240"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="226"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="228"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="236"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="170"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="225"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -6298,29 +6298,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="232"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="207"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="183"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="139"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="229"/>
-      <c r="Y11" s="230"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="234"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="221"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="221"/>
+      <c r="O11" s="222"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="152"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="226"/>
+      <c r="Y11" s="227"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6469,18 +6469,18 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="133" t="s">
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="134"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
       <c r="K3" s="27"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -6504,39 +6504,39 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="97" t="s">
+      <c r="C4" s="247"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="255"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="243"/>
+      <c r="M4" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="255"/>
-      <c r="O4" s="171" t="s">
+      <c r="N4" s="243"/>
+      <c r="O4" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="171" t="s">
+      <c r="P4" s="169"/>
+      <c r="Q4" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="172"/>
-      <c r="S4" s="158" t="s">
+      <c r="R4" s="169"/>
+      <c r="S4" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="158" t="s">
+      <c r="T4" s="91"/>
+      <c r="U4" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="W4" s="259" t="s">
+      <c r="V4" s="91"/>
+      <c r="W4" s="238" t="s">
         <v>86</v>
       </c>
       <c r="X4" s="39" t="s">
@@ -6555,39 +6555,39 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="261" t="s">
+      <c r="C5" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="93" t="s">
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="97" t="s">
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="255"/>
-      <c r="M5" s="97" t="s">
+      <c r="L5" s="243"/>
+      <c r="M5" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="255"/>
-      <c r="O5" s="274"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="274"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="260"/>
-      <c r="X5" s="259" t="s">
+      <c r="N5" s="243"/>
+      <c r="O5" s="249"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="249"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" s="218" t="s">
+      <c r="Y5" s="202" t="s">
         <v>89</v>
       </c>
       <c r="Z5" s="28"/>
@@ -6600,51 +6600,51 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="261" t="s">
+      <c r="C6" s="240" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="263"/>
-      <c r="E6" s="266" t="s">
+      <c r="D6" s="242"/>
+      <c r="E6" s="256" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="263"/>
-      <c r="G6" s="93" t="s">
+      <c r="F6" s="242"/>
+      <c r="G6" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="93" t="s">
+      <c r="H6" s="105"/>
+      <c r="I6" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="267" t="s">
+      <c r="J6" s="105"/>
+      <c r="K6" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="267"/>
-      <c r="M6" s="267" t="s">
+      <c r="L6" s="257"/>
+      <c r="M6" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="267"/>
-      <c r="O6" s="268" t="s">
+      <c r="N6" s="257"/>
+      <c r="O6" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268" t="s">
+      <c r="P6" s="258"/>
+      <c r="Q6" s="258" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="268"/>
-      <c r="S6" s="158" t="s">
+      <c r="R6" s="258"/>
+      <c r="S6" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="86"/>
-      <c r="U6" s="158" t="s">
+      <c r="T6" s="91"/>
+      <c r="U6" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="86"/>
-      <c r="W6" s="259" t="s">
+      <c r="V6" s="91"/>
+      <c r="W6" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="X6" s="264"/>
-      <c r="Y6" s="220"/>
+      <c r="X6" s="254"/>
+      <c r="Y6" s="204"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -6655,37 +6655,37 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="249" t="s">
+      <c r="C7" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250" t="s">
+      <c r="D7" s="260"/>
+      <c r="E7" s="260" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="250"/>
-      <c r="G7" s="253" t="s">
+      <c r="F7" s="260"/>
+      <c r="G7" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="253"/>
-      <c r="I7" s="253" t="s">
+      <c r="H7" s="250"/>
+      <c r="I7" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="253"/>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="268"/>
-      <c r="P7" s="268"/>
-      <c r="Q7" s="268"/>
-      <c r="R7" s="268"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="260"/>
-      <c r="X7" s="260"/>
-      <c r="Y7" s="265"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="257"/>
+      <c r="L7" s="257"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="257"/>
+      <c r="O7" s="258"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="258"/>
+      <c r="R7" s="258"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="239"/>
+      <c r="Y7" s="255"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -6696,31 +6696,31 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="253"/>
-      <c r="J8" s="253"/>
-      <c r="K8" s="267"/>
-      <c r="L8" s="267"/>
-      <c r="M8" s="267"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="246" t="s">
+      <c r="C8" s="259"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="250"/>
+      <c r="H8" s="250"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="258"/>
+      <c r="P8" s="258"/>
+      <c r="Q8" s="258"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="X8" s="247"/>
-      <c r="Y8" s="248"/>
+      <c r="X8" s="252"/>
+      <c r="Y8" s="253"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -6731,35 +6731,35 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="261" t="s">
+      <c r="C9" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="93" t="s">
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="268"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="246" t="s">
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="X9" s="247"/>
-      <c r="Y9" s="248"/>
+      <c r="X9" s="252"/>
+      <c r="Y9" s="253"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -6770,47 +6770,47 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="250"/>
-      <c r="E10" s="250" t="s">
+      <c r="D10" s="260"/>
+      <c r="E10" s="260" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="250"/>
-      <c r="G10" s="253" t="s">
+      <c r="F10" s="260"/>
+      <c r="G10" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="253"/>
-      <c r="I10" s="253" t="s">
+      <c r="H10" s="250"/>
+      <c r="I10" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="253"/>
-      <c r="K10" s="97" t="s">
+      <c r="J10" s="250"/>
+      <c r="K10" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="255"/>
-      <c r="M10" s="97" t="s">
+      <c r="L10" s="243"/>
+      <c r="M10" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="255"/>
-      <c r="O10" s="61" t="s">
+      <c r="N10" s="243"/>
+      <c r="O10" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="61" t="s">
+      <c r="P10" s="264"/>
+      <c r="Q10" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="256"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="257" t="s">
+      <c r="R10" s="264"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="265" t="s">
         <v>96</v>
       </c>
-      <c r="X10" s="257"/>
-      <c r="Y10" s="258"/>
+      <c r="X10" s="265"/>
+      <c r="Y10" s="266"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -6821,39 +6821,39 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="254"/>
-      <c r="I11" s="254"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="241" t="s">
+      <c r="C11" s="261"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="263"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="242"/>
-      <c r="M11" s="241" t="s">
+      <c r="L11" s="268"/>
+      <c r="M11" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="242"/>
-      <c r="O11" s="243" t="s">
+      <c r="N11" s="268"/>
+      <c r="O11" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="244"/>
-      <c r="Q11" s="243" t="s">
+      <c r="P11" s="270"/>
+      <c r="Q11" s="269" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="244"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="199"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="199"/>
-      <c r="W11" s="75" t="s">
+      <c r="R11" s="270"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="214"/>
+      <c r="W11" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="245"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="271"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,17 +6931,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="S6:T11"/>
+    <mergeCell ref="U6:V11"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="C9:F9"/>
@@ -6958,27 +6968,17 @@
     <mergeCell ref="Q6:R9"/>
     <mergeCell ref="S4:T5"/>
     <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="S6:T11"/>
-    <mergeCell ref="U6:V11"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7070,45 +7070,45 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="101" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="101" t="s">
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="101" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="144" t="s">
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="157" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="22"/>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="103"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="144" t="s">
+      <c r="U4" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="158" t="s">
+      <c r="V4" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="159"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -7117,29 +7117,29 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="145"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="158"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="106"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="196"/>
-      <c r="X5" s="196"/>
-      <c r="Y5" s="161"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="131"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -7150,23 +7150,23 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="177" t="s">
+      <c r="C6" s="164"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="217"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="177" t="s">
+      <c r="F6" s="201"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="217"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="177" t="s">
+      <c r="I6" s="201"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="217"/>
-      <c r="M6" s="178"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="175"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -7175,10 +7175,10 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="161"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="211"/>
+      <c r="Y6" s="131"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -7189,35 +7189,35 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="235" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="273"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="273"/>
+      <c r="I7" s="274"/>
+      <c r="J7" s="275"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="275"/>
+      <c r="N7" s="232" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="171" t="s">
+      <c r="Q7" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="172"/>
-      <c r="S7" s="158" t="s">
+      <c r="R7" s="169"/>
+      <c r="S7" s="128" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="195"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196"/>
-      <c r="Y7" s="161"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="211"/>
+      <c r="Y7" s="131"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -7228,8 +7228,8 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="74"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="19" t="s">
         <v>61</v>
       </c>
@@ -7243,22 +7243,22 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="278"/>
+      <c r="N8" s="276"/>
       <c r="O8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="274"/>
-      <c r="R8" s="216"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="279"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="161"/>
+      <c r="Q8" s="249"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="277"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="131"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -7269,37 +7269,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="71" t="s">
+      <c r="C9" s="164"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="91" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="186" t="s">
+      <c r="H9" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="268" t="s">
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="258" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="268"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="268"/>
-      <c r="T9" s="268"/>
-      <c r="U9" s="268"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="196"/>
-      <c r="X9" s="196"/>
-      <c r="Y9" s="161"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="258"/>
+      <c r="U9" s="258"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="131"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -7310,29 +7310,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="167"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="268"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="268"/>
-      <c r="T10" s="268"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="196"/>
-      <c r="X10" s="196"/>
-      <c r="Y10" s="161"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="258"/>
+      <c r="U10" s="258"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="131"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -7343,29 +7343,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="234"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="280"/>
-      <c r="O11" s="280"/>
-      <c r="P11" s="280"/>
-      <c r="Q11" s="280"/>
-      <c r="R11" s="280"/>
-      <c r="S11" s="280"/>
-      <c r="T11" s="280"/>
-      <c r="U11" s="280"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="163"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="231"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="272"/>
+      <c r="Q11" s="272"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="272"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="133"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7443,14 +7443,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="N9:U11"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:Y11"/>
     <mergeCell ref="E6:G7"/>
     <mergeCell ref="H6:J7"/>
@@ -7461,6 +7453,14 @@
     <mergeCell ref="E9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="P4:S5"/>
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="N9:U11"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7519,47 +7519,47 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="244" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="282" t="s">
+      <c r="D3" s="246"/>
+      <c r="E3" s="279" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="281" t="s">
+      <c r="F3" s="280"/>
+      <c r="G3" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="134"/>
+      <c r="H3" s="147"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="292" t="s">
+      <c r="J3" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="293" t="s">
+      <c r="K3" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="294"/>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="294"/>
-      <c r="P3" s="294"/>
-      <c r="Q3" s="295"/>
-      <c r="R3" s="292" t="s">
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="291"/>
+      <c r="P3" s="291"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="289" t="s">
         <v>57</v>
       </c>
       <c r="S3" s="27"/>
-      <c r="T3" s="281" t="s">
+      <c r="T3" s="278" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="282" t="s">
+      <c r="U3" s="147"/>
+      <c r="V3" s="279" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="283"/>
-      <c r="X3" s="284" t="s">
+      <c r="W3" s="280"/>
+      <c r="X3" s="281" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="271"/>
+      <c r="Y3" s="246"/>
       <c r="Z3" s="28"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -7568,31 +7568,31 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="277"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="190"/>
+      <c r="C4" s="247"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="187"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="93" t="s">
+      <c r="J4" s="276"/>
+      <c r="K4" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="278"/>
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="193"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="276"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="275"/>
-      <c r="W4" s="277"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="106"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="273"/>
+      <c r="W4" s="275"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="87"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -7634,35 +7634,35 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="282" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="158" t="s">
+      <c r="K6" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="195"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="86"/>
+      <c r="L6" s="210"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="91"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="71" t="s">
+      <c r="S6" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="290"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="287"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -7673,29 +7673,29 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="197"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="212"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="168"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="168"/>
-      <c r="X7" s="168"/>
-      <c r="Y7" s="291"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="288"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -7706,29 +7706,29 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="286"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="143"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="197"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="212"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="168"/>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="291"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="288"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -7739,29 +7739,29 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="156"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="197"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
+      <c r="P9" s="211"/>
+      <c r="Q9" s="212"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="291"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
+      <c r="Y9" s="288"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -7772,29 +7772,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="286"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="156"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
-      <c r="P10" s="196"/>
-      <c r="Q10" s="197"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="212"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="291"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="165"/>
+      <c r="U10" s="165"/>
+      <c r="V10" s="165"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="288"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -7805,29 +7805,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="288"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="288"/>
-      <c r="I11" s="289"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="286"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="199"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="214"/>
       <c r="R11" s="36"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="245"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="167"/>
+      <c r="X11" s="167"/>
+      <c r="Y11" s="271"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8009,40 +8009,40 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="302" t="s">
+      <c r="C4" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="116"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="253" t="s">
+      <c r="M4" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="253"/>
+      <c r="N4" s="250"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="253" t="s">
+      <c r="R4" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="253"/>
+      <c r="S4" s="250"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
-      <c r="V4" s="116" t="s">
+      <c r="V4" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116" t="s">
+      <c r="W4" s="69"/>
+      <c r="X4" s="69" t="s">
         <v>97</v>
       </c>
       <c r="Y4" s="296"/>
@@ -8054,30 +8054,30 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="156"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
+      <c r="M5" s="250"/>
+      <c r="N5" s="250"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="91" t="s">
+      <c r="P5" s="96" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="22"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="253"/>
+      <c r="R5" s="250"/>
+      <c r="S5" s="250"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
       <c r="Y5" s="296"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -8087,28 +8087,28 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="302"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="156"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="253"/>
+      <c r="M6" s="250"/>
+      <c r="N6" s="250"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="92"/>
+      <c r="P6" s="97"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="253"/>
-      <c r="S6" s="253"/>
+      <c r="R6" s="250"/>
+      <c r="S6" s="250"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="116"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
       <c r="Y6" s="296"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="22"/>
@@ -8118,32 +8118,32 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="302"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="299" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="298" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="253"/>
-      <c r="N7" s="253"/>
+      <c r="M7" s="250"/>
+      <c r="N7" s="250"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="253"/>
-      <c r="S7" s="253"/>
-      <c r="T7" s="101" t="s">
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="103"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
       <c r="Y7" s="296"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
@@ -8155,10 +8155,10 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="302"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -8168,19 +8168,19 @@
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="300"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="253"/>
-      <c r="S8" s="253"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
+      <c r="R8" s="250"/>
+      <c r="S8" s="250"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
       <c r="Y8" s="296"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
@@ -8192,34 +8192,34 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="302"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="71" t="s">
+      <c r="C9" s="293"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="150"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="71" t="s">
+      <c r="H9" s="120"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="186" t="s">
+      <c r="K9" s="120"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="250"/>
+      <c r="N9" s="250"/>
+      <c r="O9" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="187"/>
-      <c r="R9" s="253"/>
-      <c r="S9" s="253"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
+      <c r="P9" s="230"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="250"/>
+      <c r="S9" s="250"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
       <c r="Y9" s="296"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
@@ -8231,28 +8231,28 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="302"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="253"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="253"/>
-      <c r="S10" s="253"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="250"/>
+      <c r="N10" s="250"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="250"/>
+      <c r="S10" s="250"/>
+      <c r="T10" s="154"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
       <c r="Y10" s="296"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
@@ -8264,29 +8264,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="303"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="301"/>
-      <c r="U11" s="289"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="297"/>
-      <c r="X11" s="297"/>
-      <c r="Y11" s="298"/>
+      <c r="C11" s="294"/>
+      <c r="D11" s="295"/>
+      <c r="E11" s="295"/>
+      <c r="F11" s="295"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="231"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="263"/>
+      <c r="S11" s="263"/>
+      <c r="T11" s="300"/>
+      <c r="U11" s="286"/>
+      <c r="V11" s="295"/>
+      <c r="W11" s="295"/>
+      <c r="X11" s="295"/>
+      <c r="Y11" s="297"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8364,11 +8364,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="E4:F11"/>
-    <mergeCell ref="H4:K7"/>
-    <mergeCell ref="M4:N11"/>
-    <mergeCell ref="R4:S11"/>
     <mergeCell ref="X4:Y11"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="L7:L8"/>
@@ -8377,6 +8372,11 @@
     <mergeCell ref="J9:L11"/>
     <mergeCell ref="O9:Q11"/>
     <mergeCell ref="V4:W11"/>
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="E4:F11"/>
+    <mergeCell ref="H4:K7"/>
+    <mergeCell ref="M4:N11"/>
+    <mergeCell ref="R4:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/house_view.xlsx
+++ b/house_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="27795" windowHeight="11130"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="27795" windowHeight="11070" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="кухня" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="спортзал и бассейн" sheetId="10" r:id="rId10"/>
     <sheet name="сад" sheetId="11" r:id="rId11"/>
     <sheet name="галерея" sheetId="12" r:id="rId12"/>
-    <sheet name="комната" sheetId="13" r:id="rId13"/>
+    <sheet name="детская" sheetId="14" r:id="rId13"/>
+    <sheet name="стол" sheetId="15" r:id="rId14"/>
+    <sheet name="комната" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="135">
   <si>
     <t>хижина</t>
   </si>
@@ -390,6 +392,55 @@
   </si>
   <si>
     <t>скамья</t>
+  </si>
+  <si>
+    <t>салат</t>
+  </si>
+  <si>
+    <t>второе</t>
+  </si>
+  <si>
+    <t>первое</t>
+  </si>
+  <si>
+    <t>хлеб</t>
+  </si>
+  <si>
+    <t>большое блюдо</t>
+  </si>
+  <si>
+    <t>десерт</t>
+  </si>
+  <si>
+    <t>алк. Напиток</t>
+  </si>
+  <si>
+    <t>безалк. Напиток</t>
+  </si>
+  <si>
+    <t>легкие закуски</t>
+  </si>
+  <si>
+    <t>детская кровать</t>
+  </si>
+  <si>
+    <t>книжный шкаф для кабинета
+книги
+книги</t>
+  </si>
+  <si>
+    <t>шкафчик с полками
+игрушки х3</t>
+  </si>
+  <si>
+    <t>детский рабочий стол</t>
+  </si>
+  <si>
+    <t>детское рабочее кресло</t>
+  </si>
+  <si>
+    <t>стеллаж
+большие игрушки х4</t>
   </si>
 </sst>
 </file>
@@ -421,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +539,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="51">
     <border>
@@ -1101,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1265,6 +1322,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1283,19 +1481,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,12 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,95 +1547,53 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1535,118 +1676,70 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,6 +1907,60 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1829,7 +1976,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,90 +2009,24 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1979,28 +2072,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2012,15 +2114,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2036,13 +2129,118 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2348,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2398,35 +2596,35 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="312" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="312"/>
-      <c r="J3" s="63" t="s">
+      <c r="I3" s="109"/>
+      <c r="J3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="66" t="s">
+      <c r="K3" s="108"/>
+      <c r="L3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68" t="s">
+      <c r="M3" s="111"/>
+      <c r="N3" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="74" t="s">
+      <c r="O3" s="112"/>
+      <c r="P3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="75"/>
+      <c r="Q3" s="119"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -2447,35 +2645,35 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="80" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="80" t="s">
+      <c r="I4" s="123"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="77"/>
-      <c r="S4" s="55" t="s">
+      <c r="M4" s="123"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
+      <c r="S4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="82" t="s">
+      <c r="T4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="55" t="s">
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="102" t="s">
         <v>15</v>
       </c>
       <c r="Y4" s="11"/>
@@ -2489,31 +2687,31 @@
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="57" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="57" t="s">
+      <c r="I5" s="105"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="56"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="121"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="103"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="9"/>
       <c r="AC5" s="13"/>
@@ -2526,17 +2724,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="L6" s="70" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="L6" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="P6" s="88" t="s">
+      <c r="M6" s="115"/>
+      <c r="P6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="89"/>
+      <c r="Q6" s="81"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="9"/>
       <c r="AC6" s="15"/>
@@ -2548,21 +2746,21 @@
       <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="94" t="s">
+      <c r="D7" s="93"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="73"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="79"/>
-      <c r="U7" s="96" t="s">
+      <c r="L7" s="116"/>
+      <c r="M7" s="117"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
+      <c r="U7" s="98" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="11"/>
@@ -2576,31 +2774,31 @@
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="95"/>
-      <c r="J8" s="98" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="97"/>
+      <c r="J8" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="N8" s="104" t="s">
+      <c r="K8" s="86"/>
+      <c r="N8" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="105"/>
+      <c r="O8" s="101"/>
       <c r="Q8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="97"/>
-      <c r="V8" s="313" t="s">
+      <c r="U8" s="99"/>
+      <c r="V8" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="314"/>
+      <c r="W8" s="71"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="9"/>
       <c r="AC8" s="18"/>
@@ -2612,45 +2810,45 @@
       <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="111" t="s">
+      <c r="I9" s="76"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111" t="s">
+      <c r="M9" s="78"/>
+      <c r="N9" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="88" t="s">
+      <c r="O9" s="78"/>
+      <c r="P9" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="98" t="s">
+      <c r="Q9" s="81"/>
+      <c r="R9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="99"/>
-      <c r="T9" s="98" t="s">
+      <c r="S9" s="86"/>
+      <c r="T9" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="98" t="s">
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="106"/>
+      <c r="Y9" s="65"/>
       <c r="Z9" s="9"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -2661,29 +2859,29 @@
       <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="107"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
       <c r="Z10" s="9"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -2694,29 +2892,29 @@
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="103"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="108"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2792,20 +2990,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="L9:M11"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:W11"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="J8:K11"/>
-    <mergeCell ref="N8:O8"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="L5:M5"/>
@@ -2822,6 +3006,20 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:W5"/>
     <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="L9:M11"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:W11"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="J8:K11"/>
+    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2833,7 +3031,7 @@
   <dimension ref="B1:AD12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="U7" sqref="U7:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2923,26 +3121,26 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="174" t="s">
+      <c r="M4" s="186" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="174" t="s">
+      <c r="R4" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="S4" s="175"/>
+      <c r="S4" s="187"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="V4" s="89"/>
-      <c r="W4" s="88" t="s">
+      <c r="V4" s="81"/>
+      <c r="W4" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="X4" s="89"/>
+      <c r="X4" s="81"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
@@ -2962,18 +3160,18 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="203"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="203"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="215"/>
+      <c r="O5" s="215"/>
+      <c r="P5" s="215"/>
       <c r="Q5" s="47"/>
-      <c r="R5" s="273"/>
-      <c r="S5" s="275"/>
+      <c r="R5" s="284"/>
+      <c r="S5" s="286"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="79"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="121"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -2993,10 +3191,10 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="274"/>
-      <c r="P6" s="274"/>
+      <c r="M6" s="284"/>
+      <c r="N6" s="285"/>
+      <c r="O6" s="285"/>
+      <c r="P6" s="285"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
@@ -3022,25 +3220,25 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="174" t="s">
+      <c r="L7" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="201"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
       <c r="Q7" s="47"/>
-      <c r="R7" s="88" t="s">
+      <c r="R7" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="S7" s="89"/>
+      <c r="S7" s="81"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="88" t="s">
+      <c r="U7" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="89"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="81"/>
       <c r="Y7" s="29"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
@@ -3050,30 +3248,30 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="282" t="s">
+      <c r="C8" s="294" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="215"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="83"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="77"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="83"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
@@ -3085,32 +3283,32 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="283"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="205"/>
-      <c r="O9" s="205"/>
-      <c r="P9" s="205"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="217"/>
       <c r="Q9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="113"/>
-      <c r="S9" s="114"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="85"/>
       <c r="T9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="113"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="114"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="85"/>
       <c r="Y9" s="50" t="s">
         <v>61</v>
       </c>
@@ -3125,14 +3323,14 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="283"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
       <c r="K10" s="45"/>
       <c r="L10" s="27"/>
       <c r="M10" s="30"/>
@@ -3158,14 +3356,14 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="285"/>
-      <c r="H11" s="285"/>
-      <c r="I11" s="285"/>
-      <c r="J11" s="285"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
+      <c r="H11" s="297"/>
+      <c r="I11" s="297"/>
+      <c r="J11" s="297"/>
       <c r="K11" s="47"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -3353,39 +3551,39 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="304" t="s">
+      <c r="C4" s="313" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="175"/>
+      <c r="D4" s="187"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="174" t="s">
+      <c r="I4" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="175"/>
-      <c r="K4" s="174" t="s">
+      <c r="J4" s="187"/>
+      <c r="K4" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="175"/>
+      <c r="L4" s="187"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="25"/>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="69"/>
+      <c r="R4" s="113"/>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="260" t="s">
+      <c r="X4" s="259" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="260"/>
+      <c r="Y4" s="259"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -3394,33 +3592,33 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="305"/>
-      <c r="D5" s="177"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="301" t="s">
+      <c r="G5" s="316" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="177"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="189"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="301" t="s">
+      <c r="N5" s="316" t="s">
         <v>117</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="260"/>
-      <c r="Y5" s="260"/>
+      <c r="X5" s="259"/>
+      <c r="Y5" s="259"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -3429,29 +3627,29 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="305"/>
-      <c r="D6" s="177"/>
+      <c r="C6" s="314"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="302"/>
+      <c r="G6" s="317"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="177"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="177"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="189"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="302"/>
+      <c r="N6" s="317"/>
       <c r="O6" s="22"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="260"/>
-      <c r="Y6" s="260"/>
+      <c r="X6" s="259"/>
+      <c r="Y6" s="259"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
@@ -3460,33 +3658,33 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="305"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="82" t="s">
+      <c r="C7" s="314"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="302"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="317"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="177"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="177"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="189"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="302"/>
-      <c r="O7" s="82" t="s">
+      <c r="N7" s="317"/>
+      <c r="O7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="260"/>
-      <c r="Y7" s="260"/>
+      <c r="X7" s="259"/>
+      <c r="Y7" s="259"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
@@ -3495,31 +3693,31 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="305"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="302"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="317"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="273"/>
-      <c r="L8" s="275"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="302"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="82" t="s">
+      <c r="N8" s="317"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="260"/>
-      <c r="Y8" s="260"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="259"/>
+      <c r="Y8" s="259"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -3528,31 +3726,31 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="305"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="174" t="s">
+      <c r="C9" s="314"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="201"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="302"/>
-      <c r="O9" s="154"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="260"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="317"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="259"/>
+      <c r="Y9" s="259"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -3563,29 +3761,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="305"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="302"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="260"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="317"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="317"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="259"/>
+      <c r="Y10" s="259"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -3596,29 +3794,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="306"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="286"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="303"/>
-      <c r="O11" s="300"/>
-      <c r="P11" s="285"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="300"/>
-      <c r="T11" s="285"/>
-      <c r="U11" s="285"/>
-      <c r="V11" s="285"/>
-      <c r="W11" s="286"/>
-      <c r="X11" s="260"/>
-      <c r="Y11" s="260"/>
+      <c r="C11" s="315"/>
+      <c r="D11" s="191"/>
+      <c r="E11" s="310"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="318"/>
+      <c r="O11" s="310"/>
+      <c r="P11" s="297"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="310"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="297"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="298"/>
+      <c r="X11" s="259"/>
+      <c r="Y11" s="259"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,34 +3997,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="84"/>
-      <c r="N4" s="82" t="s">
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
+      <c r="N4" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="84"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="84"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="126"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="307" t="s">
+      <c r="X4" s="319" t="s">
         <v>57</v>
       </c>
       <c r="Y4" s="29"/>
@@ -3839,26 +4037,26 @@
         <v>2</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="141"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="129"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="156"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="141"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="308"/>
+      <c r="X5" s="320"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -3874,20 +4072,20 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="156"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="141"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
@@ -3900,38 +4098,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="82" t="s">
+      <c r="E7" s="125"/>
+      <c r="F7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="83"/>
-      <c r="P7" s="82" t="s">
+      <c r="O7" s="125"/>
+      <c r="P7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="Q7" s="83"/>
+      <c r="Q7" s="125"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="87"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="129"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="82" t="s">
+      <c r="X7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="Y7" s="309"/>
+      <c r="Y7" s="321"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
@@ -3941,28 +4139,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="154"/>
-      <c r="Q8" s="155"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="140"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="310"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="322"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -3972,32 +4170,32 @@
         <v>6</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="82" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="155"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="82" t="s">
+      <c r="S9" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="126"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="310"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="322"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
@@ -4007,28 +4205,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="155"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="87"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="129"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="310"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="322"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -4040,28 +4238,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="285"/>
-      <c r="H11" s="300"/>
-      <c r="I11" s="285"/>
-      <c r="J11" s="285"/>
-      <c r="K11" s="285"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="286"/>
-      <c r="N11" s="300"/>
-      <c r="O11" s="285"/>
-      <c r="P11" s="300"/>
-      <c r="Q11" s="285"/>
+      <c r="D11" s="310"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="310"/>
+      <c r="G11" s="297"/>
+      <c r="H11" s="310"/>
+      <c r="I11" s="297"/>
+      <c r="J11" s="297"/>
+      <c r="K11" s="297"/>
+      <c r="L11" s="297"/>
+      <c r="M11" s="298"/>
+      <c r="N11" s="310"/>
+      <c r="O11" s="297"/>
+      <c r="P11" s="310"/>
+      <c r="Q11" s="297"/>
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="300"/>
-      <c r="Y11" s="311"/>
+      <c r="X11" s="310"/>
+      <c r="Y11" s="323"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4159,10 +4357,1748 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="29" width="6.42578125" style="1"/>
+    <col min="30" max="30" width="19.85546875" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="6.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="22"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25">
+        <f>A3*45</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="343" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="355" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="352"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="28"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" ref="B4:B11" si="0">A4*45</f>
+        <v>45</v>
+      </c>
+      <c r="C4" s="326"/>
+      <c r="D4" s="327"/>
+      <c r="E4" s="327"/>
+      <c r="F4" s="327"/>
+      <c r="G4" s="328"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="358" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="359"/>
+      <c r="L4" s="193" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="115"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="229" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="230"/>
+      <c r="X4" s="230"/>
+      <c r="Y4" s="345"/>
+      <c r="Z4" s="28"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="326"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="328"/>
+      <c r="H5" s="283"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="359"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="247"/>
+      <c r="W5" s="248"/>
+      <c r="X5" s="248"/>
+      <c r="Y5" s="346"/>
+      <c r="Z5" s="28"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C6" s="326"/>
+      <c r="D6" s="327"/>
+      <c r="E6" s="327"/>
+      <c r="F6" s="327"/>
+      <c r="G6" s="328"/>
+      <c r="H6" s="354" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="353"/>
+      <c r="J6" s="358"/>
+      <c r="K6" s="359"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="247"/>
+      <c r="W6" s="248"/>
+      <c r="X6" s="248"/>
+      <c r="Y6" s="346"/>
+      <c r="Z6" s="28"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C7" s="326"/>
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="327"/>
+      <c r="G7" s="328"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="358"/>
+      <c r="K7" s="359"/>
+      <c r="L7" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="213"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="247"/>
+      <c r="W7" s="248"/>
+      <c r="X7" s="248"/>
+      <c r="Y7" s="346"/>
+      <c r="Z7" s="28"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C8" s="326"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
+      <c r="G8" s="328"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="359"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="285"/>
+      <c r="N8" s="286"/>
+      <c r="O8" s="356" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="357"/>
+      <c r="Q8" s="340"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="247"/>
+      <c r="W8" s="248"/>
+      <c r="X8" s="248"/>
+      <c r="Y8" s="346"/>
+      <c r="Z8" s="28"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C9" s="326"/>
+      <c r="D9" s="327"/>
+      <c r="E9" s="327"/>
+      <c r="F9" s="327"/>
+      <c r="G9" s="328"/>
+      <c r="H9" s="348" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="349"/>
+      <c r="J9" s="358"/>
+      <c r="K9" s="359"/>
+      <c r="L9" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="222"/>
+      <c r="N9" s="222"/>
+      <c r="O9" s="222"/>
+      <c r="P9" s="222"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="247"/>
+      <c r="W9" s="248"/>
+      <c r="X9" s="248"/>
+      <c r="Y9" s="346"/>
+      <c r="Z9" s="28"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="C10" s="326"/>
+      <c r="D10" s="327"/>
+      <c r="E10" s="327"/>
+      <c r="F10" s="327"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="359"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="223"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="180" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="181"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="248"/>
+      <c r="X10" s="248"/>
+      <c r="Y10" s="346"/>
+      <c r="Z10" s="28"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C11" s="344"/>
+      <c r="D11" s="336"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="336"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="350"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="360"/>
+      <c r="K11" s="361"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="226"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="185"/>
+      <c r="V11" s="232"/>
+      <c r="W11" s="233"/>
+      <c r="X11" s="233"/>
+      <c r="Y11" s="347"/>
+      <c r="Z11" s="28"/>
+    </row>
+    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="30">
+        <f>C13*45</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" ref="D12:Y12" si="1">D13*45</f>
+        <v>45</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="N12" s="30">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="O12" s="30">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="R12" s="30">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="S12" s="30">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="T12" s="30">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="U12" s="30">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="V12" s="30">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="W12" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="X12" s="30">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="Y12" s="30">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1">
+        <v>16</v>
+      </c>
+      <c r="T13" s="1">
+        <v>17</v>
+      </c>
+      <c r="U13" s="1">
+        <v>18</v>
+      </c>
+      <c r="V13" s="1">
+        <v>19</v>
+      </c>
+      <c r="W13" s="1">
+        <v>20</v>
+      </c>
+      <c r="X13" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L9:Q11"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="R4:S11"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C3:G11"/>
+    <mergeCell ref="V4:Y11"/>
+    <mergeCell ref="J4:K11"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="H3:I5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="H9:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="29" width="6.42578125" style="1"/>
+    <col min="30" max="30" width="19.85546875" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="6.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="338"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="339"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="22"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25">
+        <f>A3*45</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="28"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" ref="B4:B11" si="0">A4*45</f>
+        <v>45</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="335" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="325"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="335" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="325"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="335" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="325"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="335" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="324"/>
+      <c r="O4" s="324"/>
+      <c r="P4" s="324"/>
+      <c r="Q4" s="324"/>
+      <c r="R4" s="324"/>
+      <c r="S4" s="325"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="335" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="324"/>
+      <c r="W4" s="325"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="28"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="328"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="328"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="328"/>
+      <c r="L5" s="340"/>
+      <c r="M5" s="333"/>
+      <c r="N5" s="327"/>
+      <c r="O5" s="327"/>
+      <c r="P5" s="327"/>
+      <c r="Q5" s="327"/>
+      <c r="R5" s="327"/>
+      <c r="S5" s="328"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="327"/>
+      <c r="W5" s="328"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="28"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="333"/>
+      <c r="E6" s="328"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="334"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="340"/>
+      <c r="M6" s="334"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="329"/>
+      <c r="P6" s="329"/>
+      <c r="Q6" s="329"/>
+      <c r="R6" s="329"/>
+      <c r="S6" s="330"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="334"/>
+      <c r="V6" s="329"/>
+      <c r="W6" s="330"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="28"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C7" s="341"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="328"/>
+      <c r="F7" s="340"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="328"/>
+      <c r="I7" s="340"/>
+      <c r="J7" s="340"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="340"/>
+      <c r="M7" s="340"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="340"/>
+      <c r="P7" s="340"/>
+      <c r="Q7" s="340"/>
+      <c r="R7" s="340"/>
+      <c r="S7" s="340"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="340"/>
+      <c r="V7" s="340"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="28"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C8" s="341"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="340"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="340"/>
+      <c r="J8" s="335" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="325"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="333" t="s">
+        <v>122</v>
+      </c>
+      <c r="N8" s="327"/>
+      <c r="O8" s="328"/>
+      <c r="P8" s="342"/>
+      <c r="Q8" s="335" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="324"/>
+      <c r="S8" s="325"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="335" t="s">
+        <v>128</v>
+      </c>
+      <c r="V8" s="324"/>
+      <c r="W8" s="325"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="28"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="340"/>
+      <c r="E9" s="340"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="340"/>
+      <c r="H9" s="340"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="333"/>
+      <c r="K9" s="328"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="333"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="328"/>
+      <c r="P9" s="340"/>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="327"/>
+      <c r="S9" s="328"/>
+      <c r="T9" s="340"/>
+      <c r="U9" s="333"/>
+      <c r="V9" s="327"/>
+      <c r="W9" s="328"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="28"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="340"/>
+      <c r="E10" s="340"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="340"/>
+      <c r="H10" s="340"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="334"/>
+      <c r="K10" s="330"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="334"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="330"/>
+      <c r="P10" s="340"/>
+      <c r="Q10" s="334"/>
+      <c r="R10" s="329"/>
+      <c r="S10" s="330"/>
+      <c r="T10" s="340"/>
+      <c r="U10" s="334"/>
+      <c r="V10" s="329"/>
+      <c r="W10" s="330"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="28"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="28"/>
+    </row>
+    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="30">
+        <f>C13*45</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" ref="D12:Y12" si="1">D13*45</f>
+        <v>45</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="N12" s="30">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="O12" s="30">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="R12" s="30">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="S12" s="30">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="T12" s="30">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="U12" s="30">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="V12" s="30">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="W12" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="X12" s="30">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="Y12" s="30">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1">
+        <v>16</v>
+      </c>
+      <c r="T13" s="1">
+        <v>17</v>
+      </c>
+      <c r="U13" s="1">
+        <v>18</v>
+      </c>
+      <c r="V13" s="1">
+        <v>19</v>
+      </c>
+      <c r="W13" s="1">
+        <v>20</v>
+      </c>
+      <c r="X13" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="U8:W10"/>
+    <mergeCell ref="M4:S6"/>
+    <mergeCell ref="J4:K6"/>
+    <mergeCell ref="J8:K10"/>
+    <mergeCell ref="U4:W6"/>
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="M8:O10"/>
+    <mergeCell ref="Q8:S10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="29" width="6.42578125" style="1"/>
+    <col min="30" max="30" width="19.85546875" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="6.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="22"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25">
+        <f>A3*45</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="28"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <f t="shared" ref="B4:B11" si="0">A4*45</f>
+        <v>45</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="28"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="28"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="28"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="28"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="28"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="28"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="28"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="28"/>
+    </row>
+    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="30">
+        <f>C13*45</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" ref="D12:Y12" si="1">D13*45</f>
+        <v>45</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="N12" s="30">
+        <f t="shared" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="O12" s="30">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="R12" s="30">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="S12" s="30">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="T12" s="30">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="U12" s="30">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="V12" s="30">
+        <f t="shared" si="1"/>
+        <v>855</v>
+      </c>
+      <c r="W12" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="X12" s="30">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+      <c r="Y12" s="30">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12</v>
+      </c>
+      <c r="P13" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1">
+        <v>16</v>
+      </c>
+      <c r="T13" s="1">
+        <v>17</v>
+      </c>
+      <c r="U13" s="1">
+        <v>18</v>
+      </c>
+      <c r="V13" s="1">
+        <v>19</v>
+      </c>
+      <c r="W13" s="1">
+        <v>20</v>
+      </c>
+      <c r="X13" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+      <selection activeCell="L6" sqref="L4:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4210,12 +6146,16 @@
       </c>
     </row>
     <row r="3" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
@@ -4233,7 +6173,9 @@
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
-      <c r="Y3" s="38"/>
+      <c r="Y3" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="Z3" s="28"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="1" t="s">
@@ -4241,21 +6183,25 @@
       </c>
     </row>
     <row r="4" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
+      <c r="M4" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="126"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
@@ -4272,30 +6218,40 @@
       </c>
     </row>
     <row r="5" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="25">
+        <v>2</v>
+      </c>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="142" t="s">
+        <v>46</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="144" t="s">
+        <v>47</v>
+      </c>
       <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="141"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="R5" s="144" t="s">
+        <v>47</v>
+      </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
-      <c r="Y5" s="29"/>
+      <c r="Y5" s="146" t="s">
+        <v>46</v>
+      </c>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -4303,30 +6259,34 @@
       </c>
     </row>
     <row r="6" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="25">
+        <v>3</v>
+      </c>
+      <c r="C6" s="133"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="143"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="141"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="145"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="T6" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="81"/>
       <c r="X6" s="22"/>
-      <c r="Y6" s="29"/>
+      <c r="Y6" s="147"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -4334,30 +6294,36 @@
       </c>
     </row>
     <row r="7" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="22"/>
+      <c r="B7" s="25">
+        <v>4</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="151"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="129"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="29"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="157"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -4365,14 +6331,16 @@
       </c>
     </row>
     <row r="8" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="22"/>
+      <c r="B8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="133"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="153"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -4387,8 +6355,8 @@
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="29"/>
+      <c r="X8" s="158"/>
+      <c r="Y8" s="159"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -4396,30 +6364,40 @@
       </c>
     </row>
     <row r="9" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="B9" s="25">
+        <v>6</v>
+      </c>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="K9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="29"/>
+      <c r="T9" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="158"/>
+      <c r="Y9" s="159"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -4427,30 +6405,36 @@
       </c>
     </row>
     <row r="10" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="29"/>
+      <c r="B10" s="25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="169" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="170"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="169" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="170"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="159"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -4458,71 +6442,134 @@
       </c>
     </row>
     <row r="11" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="54"/>
+      <c r="B11" s="25">
+        <v>8</v>
+      </c>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="161"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2</v>
+      </c>
+      <c r="F12" s="30">
+        <v>3</v>
+      </c>
+      <c r="G12" s="30">
+        <v>4</v>
+      </c>
+      <c r="H12" s="30">
+        <v>5</v>
+      </c>
+      <c r="I12" s="30">
+        <v>6</v>
+      </c>
+      <c r="J12" s="30">
+        <v>7</v>
+      </c>
+      <c r="K12" s="30">
+        <v>8</v>
+      </c>
+      <c r="L12" s="30">
+        <v>9</v>
+      </c>
+      <c r="M12" s="30">
+        <v>10</v>
+      </c>
+      <c r="N12" s="30">
+        <v>11</v>
+      </c>
+      <c r="O12" s="30">
+        <v>12</v>
+      </c>
+      <c r="P12" s="30">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>14</v>
+      </c>
+      <c r="R12" s="30">
+        <v>15</v>
+      </c>
+      <c r="S12" s="30">
+        <v>16</v>
+      </c>
+      <c r="T12" s="30">
+        <v>17</v>
+      </c>
+      <c r="U12" s="30">
+        <v>18</v>
+      </c>
+      <c r="V12" s="30">
+        <v>19</v>
+      </c>
+      <c r="W12" s="30">
+        <v>20</v>
+      </c>
+      <c r="X12" s="30">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>22</v>
+      </c>
       <c r="Z12" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="H7:I11"/>
+    <mergeCell ref="X7:Y11"/>
+    <mergeCell ref="L9:Q11"/>
+    <mergeCell ref="T9:W11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="R10:S11"/>
+    <mergeCell ref="C3:G11"/>
+    <mergeCell ref="M4:P7"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="R5:R6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+      <selection activeCell="L5" sqref="L5:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4573,477 +6620,6 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="145" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="28"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25">
-        <v>1</v>
-      </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="28"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25">
-        <v>2</v>
-      </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="159" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="159" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="118" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="28"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25">
-        <v>3</v>
-      </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="28"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25">
-        <v>4</v>
-      </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="128" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="28"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25">
-        <v>5</v>
-      </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="28"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25">
-        <v>6</v>
-      </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="28"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25">
-        <v>7</v>
-      </c>
-      <c r="C10" s="148"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="141" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="142"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="141" t="s">
-        <v>53</v>
-      </c>
-      <c r="S10" s="142"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="28"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25">
-        <v>8</v>
-      </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="139"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="28"/>
-    </row>
-    <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2</v>
-      </c>
-      <c r="F12" s="30">
-        <v>3</v>
-      </c>
-      <c r="G12" s="30">
-        <v>4</v>
-      </c>
-      <c r="H12" s="30">
-        <v>5</v>
-      </c>
-      <c r="I12" s="30">
-        <v>6</v>
-      </c>
-      <c r="J12" s="30">
-        <v>7</v>
-      </c>
-      <c r="K12" s="30">
-        <v>8</v>
-      </c>
-      <c r="L12" s="30">
-        <v>9</v>
-      </c>
-      <c r="M12" s="30">
-        <v>10</v>
-      </c>
-      <c r="N12" s="30">
-        <v>11</v>
-      </c>
-      <c r="O12" s="30">
-        <v>12</v>
-      </c>
-      <c r="P12" s="30">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>14</v>
-      </c>
-      <c r="R12" s="30">
-        <v>15</v>
-      </c>
-      <c r="S12" s="30">
-        <v>16</v>
-      </c>
-      <c r="T12" s="30">
-        <v>17</v>
-      </c>
-      <c r="U12" s="30">
-        <v>18</v>
-      </c>
-      <c r="V12" s="30">
-        <v>19</v>
-      </c>
-      <c r="W12" s="30">
-        <v>20</v>
-      </c>
-      <c r="X12" s="30">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="30">
-        <v>22</v>
-      </c>
-      <c r="Z12" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C3:G11"/>
-    <mergeCell ref="M4:P7"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="H7:I11"/>
-    <mergeCell ref="X7:Y11"/>
-    <mergeCell ref="L9:Q11"/>
-    <mergeCell ref="T9:W11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="R10:S11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="29" width="6.42578125" style="1"/>
-    <col min="30" max="30" width="19.85546875" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="6.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="22"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25">
-        <v>0</v>
-      </c>
       <c r="C3" s="31"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -5113,44 +6689,44 @@
         <v>2</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="181" t="s">
+      <c r="L5" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="183" t="s">
+      <c r="M5" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="184"/>
-      <c r="O5" s="141" t="s">
+      <c r="N5" s="196"/>
+      <c r="O5" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="181" t="s">
+      <c r="P5" s="170"/>
+      <c r="Q5" s="193" t="s">
         <v>57</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="69"/>
+      <c r="V5" s="113"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="128" t="s">
+      <c r="X5" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="129"/>
+      <c r="Y5" s="157"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -5162,28 +6738,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="182"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="197"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="194"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="131"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="159"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -5204,10 +6780,10 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="191"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="203"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -5215,8 +6791,8 @@
       <c r="U7" s="34"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="162"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="174"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -5227,11 +6803,11 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="89"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="33"/>
@@ -5247,10 +6823,10 @@
       <c r="N8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="99"/>
+      <c r="P8" s="86"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -5270,41 +6846,41 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="70" t="s">
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="71"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="168" t="s">
+      <c r="M9" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="169"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="98" t="s">
+      <c r="R9" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="99"/>
+      <c r="S9" s="86"/>
       <c r="T9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="174" t="s">
+      <c r="U9" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="175"/>
+      <c r="V9" s="187"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="128" t="s">
+      <c r="X9" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="129"/>
+      <c r="Y9" s="157"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -5315,30 +6891,30 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="96" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="101"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="87"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="87"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="176"/>
-      <c r="V10" s="177"/>
+      <c r="U10" s="188"/>
+      <c r="V10" s="189"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="131"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="159"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -5349,31 +6925,31 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="103"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="88"/>
       <c r="Q11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="102"/>
-      <c r="S11" s="103"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="88"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="178"/>
-      <c r="V11" s="179"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="191"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="133"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="161"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,18 +7144,18 @@
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="181" t="s">
+      <c r="G4" s="193" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="82" t="s">
+      <c r="I4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="84"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="181" t="s">
+      <c r="N4" s="193" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="22"/>
@@ -5607,28 +7183,28 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="182"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="156"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="141"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="182"/>
+      <c r="N5" s="194"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="88" t="s">
+      <c r="P5" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="89"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="88" t="s">
+      <c r="U5" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="89"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="81"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
@@ -5640,30 +7216,30 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="105"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="79"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="121"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="79"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="121"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
@@ -5675,18 +7251,18 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="169"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="181"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="87"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -5710,11 +7286,11 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="171"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="183"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -5722,21 +7298,21 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="96" t="s">
+      <c r="O8" s="98" t="s">
         <v>46</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="174" t="s">
+      <c r="T8" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="201"/>
-      <c r="V8" s="201"/>
-      <c r="W8" s="201"/>
-      <c r="X8" s="201"/>
-      <c r="Y8" s="202"/>
+      <c r="U8" s="213"/>
+      <c r="V8" s="213"/>
+      <c r="W8" s="213"/>
+      <c r="X8" s="213"/>
+      <c r="Y8" s="214"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -5747,37 +7323,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="198"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="141" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="142"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="170"/>
       <c r="N9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="99"/>
       <c r="P9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="128" t="s">
+      <c r="Q9" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="210"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="203"/>
-      <c r="W9" s="203"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="204"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="215"/>
+      <c r="X9" s="215"/>
+      <c r="Y9" s="216"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -5788,33 +7364,33 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="217" t="s">
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="229" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="218"/>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="176"/>
-      <c r="U10" s="203"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="204"/>
+      <c r="O10" s="230"/>
+      <c r="P10" s="231"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="215"/>
+      <c r="V10" s="215"/>
+      <c r="W10" s="215"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="216"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -5825,29 +7401,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="216"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="221"/>
-      <c r="P11" s="222"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="213"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="178"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="205"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="206"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="221"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="232"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="234"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="226"/>
+      <c r="T11" s="190"/>
+      <c r="U11" s="217"/>
+      <c r="V11" s="217"/>
+      <c r="W11" s="217"/>
+      <c r="X11" s="217"/>
+      <c r="Y11" s="218"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5946,10 +7522,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD12"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5959,11 +7535,11 @@
     <col min="31" max="16384" width="6.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
     </row>
-    <row r="2" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -5992,7 +7568,10 @@
       <c r="AC2" s="22"/>
       <c r="AD2" s="22"/>
     </row>
-    <row r="3" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
       <c r="B3" s="25">
         <v>0</v>
       </c>
@@ -6027,36 +7606,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45</v>
+      </c>
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="91"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="126"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="183" t="s">
+      <c r="S4" s="195" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="230"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="184"/>
+      <c r="T4" s="242"/>
+      <c r="U4" s="242"/>
+      <c r="V4" s="196"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="29"/>
@@ -6066,34 +7648,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>90</v>
+      </c>
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="228"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="212"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="193" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="156"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="181" t="s">
+      <c r="P5" s="193" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
-      <c r="V5" s="150"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="135"/>
       <c r="W5" s="22"/>
       <c r="X5" s="18" t="s">
         <v>61</v>
@@ -6105,30 +7690,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>135</v>
+      </c>
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="228"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="224"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="182"/>
+      <c r="I6" s="194"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="141"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="182"/>
+      <c r="P6" s="194"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="135"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
@@ -6138,32 +7726,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>180</v>
+      </c>
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="212"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="224"/>
       <c r="G7" s="22"/>
       <c r="H7" s="33"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="87"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="129"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="150"/>
+      <c r="S7" s="197"/>
+      <c r="T7" s="134"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="135"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="157" t="s">
+      <c r="X7" s="142" t="s">
         <v>46</v>
       </c>
       <c r="Y7" s="29"/>
@@ -6173,14 +7764,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>225</v>
+      </c>
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="224"/>
       <c r="G8" s="22"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
@@ -6188,10 +7782,10 @@
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="81"/>
+      <c r="M8" s="123"/>
       <c r="N8" s="18" t="s">
         <v>61</v>
       </c>
@@ -6199,14 +7793,14 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="150"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="135"/>
       <c r="W8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="158"/>
+      <c r="X8" s="143"/>
       <c r="Y8" s="19" t="s">
         <v>61</v>
       </c>
@@ -6216,114 +7810,123 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>270</v>
+      </c>
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="228"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="232" t="s">
+      <c r="C9" s="240"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="244" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="217" t="s">
+      <c r="I9" s="115"/>
+      <c r="J9" s="229" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="70" t="s">
+      <c r="K9" s="230"/>
+      <c r="L9" s="230"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="230"/>
+      <c r="O9" s="231"/>
+      <c r="P9" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="96" t="s">
+      <c r="Q9" s="115"/>
+      <c r="R9" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="185"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="168" t="s">
+      <c r="S9" s="197"/>
+      <c r="T9" s="134"/>
+      <c r="U9" s="134"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="180" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="224"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="236"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>315</v>
+      </c>
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="228"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
-      <c r="M10" s="236"/>
-      <c r="N10" s="236"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="149"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="225"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="248"/>
+      <c r="N10" s="248"/>
+      <c r="O10" s="249"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="209"/>
+      <c r="Y10" s="237"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>360</v>
+      </c>
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="214"/>
-      <c r="G11" s="234"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="222"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="180"/>
-      <c r="S11" s="231"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="226"/>
-      <c r="Y11" s="227"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="233"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="166"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="243"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="239"/>
       <c r="Z11" s="28"/>
     </row>
-    <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="30">
         <v>0</v>
@@ -6395,6 +7998,77 @@
         <v>22</v>
       </c>
       <c r="Z12" s="22"/>
+    </row>
+    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1">
+        <v>180</v>
+      </c>
+      <c r="H13" s="1">
+        <v>225</v>
+      </c>
+      <c r="I13" s="1">
+        <v>270</v>
+      </c>
+      <c r="J13" s="1">
+        <v>315</v>
+      </c>
+      <c r="K13" s="1">
+        <v>360</v>
+      </c>
+      <c r="L13" s="1">
+        <v>405</v>
+      </c>
+      <c r="M13" s="1">
+        <v>450</v>
+      </c>
+      <c r="N13" s="1">
+        <v>495</v>
+      </c>
+      <c r="O13" s="1">
+        <v>540</v>
+      </c>
+      <c r="P13" s="1">
+        <v>585</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>630</v>
+      </c>
+      <c r="R13" s="1">
+        <v>675</v>
+      </c>
+      <c r="S13" s="1">
+        <v>720</v>
+      </c>
+      <c r="T13" s="1">
+        <v>765</v>
+      </c>
+      <c r="U13" s="1">
+        <v>810</v>
+      </c>
+      <c r="V13" s="1">
+        <v>855</v>
+      </c>
+      <c r="W13" s="1">
+        <v>900</v>
+      </c>
+      <c r="X13" s="1">
+        <v>945</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6469,18 +8143,18 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="244" t="s">
+      <c r="C3" s="278" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="146" t="s">
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="132"/>
       <c r="K3" s="27"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -6504,39 +8178,39 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="80" t="s">
+      <c r="C4" s="281"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="199"/>
+      <c r="K4" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="243"/>
-      <c r="M4" s="80" t="s">
+      <c r="L4" s="264"/>
+      <c r="M4" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="243"/>
-      <c r="O4" s="168" t="s">
+      <c r="N4" s="264"/>
+      <c r="O4" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="168" t="s">
+      <c r="P4" s="181"/>
+      <c r="Q4" s="180" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="169"/>
-      <c r="S4" s="128" t="s">
+      <c r="R4" s="181"/>
+      <c r="S4" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="128" t="s">
+      <c r="T4" s="93"/>
+      <c r="U4" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="91"/>
-      <c r="W4" s="238" t="s">
+      <c r="V4" s="93"/>
+      <c r="W4" s="268" t="s">
         <v>86</v>
       </c>
       <c r="X4" s="39" t="s">
@@ -6555,39 +8229,39 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="240" t="s">
+      <c r="C5" s="270" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="104" t="s">
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="80" t="s">
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="243"/>
-      <c r="M5" s="80" t="s">
+      <c r="L5" s="264"/>
+      <c r="M5" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="243"/>
-      <c r="O5" s="249"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="249"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="238" t="s">
+      <c r="N5" s="264"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="283"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="269"/>
+      <c r="X5" s="268" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" s="202" t="s">
+      <c r="Y5" s="214" t="s">
         <v>89</v>
       </c>
       <c r="Z5" s="28"/>
@@ -6600,51 +8274,51 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="240" t="s">
+      <c r="C6" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="256" t="s">
+      <c r="D6" s="272"/>
+      <c r="E6" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="242"/>
-      <c r="G6" s="104" t="s">
+      <c r="F6" s="272"/>
+      <c r="G6" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="104" t="s">
+      <c r="H6" s="101"/>
+      <c r="I6" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="257" t="s">
+      <c r="J6" s="101"/>
+      <c r="K6" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257" t="s">
+      <c r="L6" s="276"/>
+      <c r="M6" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="257"/>
-      <c r="O6" s="258" t="s">
+      <c r="N6" s="276"/>
+      <c r="O6" s="277" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="258" t="s">
+      <c r="P6" s="277"/>
+      <c r="Q6" s="277" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="258"/>
-      <c r="S6" s="128" t="s">
+      <c r="R6" s="277"/>
+      <c r="S6" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="91"/>
-      <c r="U6" s="128" t="s">
+      <c r="T6" s="93"/>
+      <c r="U6" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="91"/>
-      <c r="W6" s="238" t="s">
+      <c r="V6" s="93"/>
+      <c r="W6" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="X6" s="254"/>
-      <c r="Y6" s="204"/>
+      <c r="X6" s="273"/>
+      <c r="Y6" s="216"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -6655,37 +8329,37 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260" t="s">
+      <c r="D7" s="259"/>
+      <c r="E7" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="260"/>
-      <c r="G7" s="250" t="s">
+      <c r="F7" s="259"/>
+      <c r="G7" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250" t="s">
+      <c r="H7" s="262"/>
+      <c r="I7" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="250"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="257"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="258"/>
-      <c r="P7" s="258"/>
-      <c r="Q7" s="258"/>
-      <c r="R7" s="258"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="239"/>
-      <c r="Y7" s="255"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="276"/>
+      <c r="O7" s="277"/>
+      <c r="P7" s="277"/>
+      <c r="Q7" s="277"/>
+      <c r="R7" s="277"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="274"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -6696,31 +8370,31 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="250"/>
-      <c r="H8" s="250"/>
-      <c r="I8" s="250"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="258"/>
-      <c r="Q8" s="258"/>
-      <c r="R8" s="258"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="212"/>
-      <c r="W8" s="251" t="s">
+      <c r="C8" s="258"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="277"/>
+      <c r="P8" s="277"/>
+      <c r="Q8" s="277"/>
+      <c r="R8" s="277"/>
+      <c r="S8" s="158"/>
+      <c r="T8" s="224"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="224"/>
+      <c r="W8" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="X8" s="252"/>
-      <c r="Y8" s="253"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="257"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -6731,35 +8405,35 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="240" t="s">
+      <c r="C9" s="270" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="104" t="s">
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="212"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="212"/>
-      <c r="W9" s="251" t="s">
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="276"/>
+      <c r="L9" s="276"/>
+      <c r="M9" s="276"/>
+      <c r="N9" s="276"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="277"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="X9" s="252"/>
-      <c r="Y9" s="253"/>
+      <c r="X9" s="256"/>
+      <c r="Y9" s="257"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -6770,47 +8444,47 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="259" t="s">
+      <c r="C10" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260" t="s">
+      <c r="D10" s="259"/>
+      <c r="E10" s="259" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="260"/>
-      <c r="G10" s="250" t="s">
+      <c r="F10" s="259"/>
+      <c r="G10" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250" t="s">
+      <c r="H10" s="262"/>
+      <c r="I10" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="250"/>
-      <c r="K10" s="80" t="s">
+      <c r="J10" s="262"/>
+      <c r="K10" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="243"/>
-      <c r="M10" s="80" t="s">
+      <c r="L10" s="264"/>
+      <c r="M10" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="243"/>
-      <c r="O10" s="57" t="s">
+      <c r="N10" s="264"/>
+      <c r="O10" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="57" t="s">
+      <c r="P10" s="265"/>
+      <c r="Q10" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="264"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="212"/>
-      <c r="W10" s="265" t="s">
+      <c r="R10" s="265"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="224"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="224"/>
+      <c r="W10" s="266" t="s">
         <v>96</v>
       </c>
-      <c r="X10" s="265"/>
-      <c r="Y10" s="266"/>
+      <c r="X10" s="266"/>
+      <c r="Y10" s="267"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -6821,39 +8495,39 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="261"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="262"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
       <c r="G11" s="263"/>
       <c r="H11" s="263"/>
       <c r="I11" s="263"/>
       <c r="J11" s="263"/>
-      <c r="K11" s="267" t="s">
+      <c r="K11" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="268"/>
-      <c r="M11" s="267" t="s">
+      <c r="L11" s="251"/>
+      <c r="M11" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="268"/>
-      <c r="O11" s="269" t="s">
+      <c r="N11" s="251"/>
+      <c r="O11" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="269" t="s">
+      <c r="P11" s="253"/>
+      <c r="Q11" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="270"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="113" t="s">
+      <c r="R11" s="253"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="226"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="226"/>
+      <c r="W11" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="271"/>
+      <c r="X11" s="179"/>
+      <c r="Y11" s="254"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,11 +8605,33 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L9"/>
+    <mergeCell ref="M6:N9"/>
+    <mergeCell ref="O6:P9"/>
+    <mergeCell ref="Q6:R9"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
     <mergeCell ref="W9:Y9"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
@@ -6952,33 +8648,11 @@
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:F8"/>
     <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L9"/>
-    <mergeCell ref="M6:N9"/>
-    <mergeCell ref="O6:P9"/>
-    <mergeCell ref="Q6:R9"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="W11:Y11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6989,7 +8663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -7070,45 +8744,45 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="82" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="82" t="s">
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="82" t="s">
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="157" t="s">
+      <c r="L4" s="125"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="142" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="22"/>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="84"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="126"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="157" t="s">
+      <c r="U4" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="128" t="s">
+      <c r="V4" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="129"/>
+      <c r="W4" s="222"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="157"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -7117,29 +8791,29 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="164"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="158"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="87"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="129"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="211"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="131"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="223"/>
+      <c r="X5" s="223"/>
+      <c r="Y5" s="159"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -7150,23 +8824,23 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="174" t="s">
+      <c r="C6" s="176"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="201"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="174" t="s">
+      <c r="F6" s="213"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="201"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="174" t="s">
+      <c r="I6" s="213"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="186" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="201"/>
-      <c r="M6" s="175"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="187"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -7175,10 +8849,10 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="211"/>
-      <c r="X6" s="211"/>
-      <c r="Y6" s="131"/>
+      <c r="V6" s="158"/>
+      <c r="W6" s="223"/>
+      <c r="X6" s="223"/>
+      <c r="Y6" s="159"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -7189,35 +8863,35 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="273"/>
-      <c r="I7" s="274"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="273"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="232" t="s">
+      <c r="C7" s="176"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="244" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="168" t="s">
+      <c r="Q7" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="169"/>
-      <c r="S7" s="128" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="210"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="211"/>
-      <c r="X7" s="211"/>
-      <c r="Y7" s="131"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="223"/>
+      <c r="Y7" s="159"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -7228,8 +8902,8 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="77"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="19" t="s">
         <v>61</v>
       </c>
@@ -7243,22 +8917,22 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="276"/>
+      <c r="N8" s="287"/>
       <c r="O8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="277"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="211"/>
-      <c r="X8" s="211"/>
-      <c r="Y8" s="131"/>
+      <c r="Q8" s="283"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="173"/>
+      <c r="T8" s="288"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="223"/>
+      <c r="Y8" s="159"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -7269,37 +8943,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="88" t="s">
+      <c r="C9" s="176"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="96" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="183" t="s">
+      <c r="H9" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="230"/>
-      <c r="L9" s="230"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="258" t="s">
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="242"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="258"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="258"/>
-      <c r="R9" s="258"/>
-      <c r="S9" s="258"/>
-      <c r="T9" s="258"/>
-      <c r="U9" s="258"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="131"/>
+      <c r="O9" s="277"/>
+      <c r="P9" s="277"/>
+      <c r="Q9" s="277"/>
+      <c r="R9" s="277"/>
+      <c r="S9" s="277"/>
+      <c r="T9" s="277"/>
+      <c r="U9" s="277"/>
+      <c r="V9" s="158"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="223"/>
+      <c r="Y9" s="159"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -7310,29 +8984,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="131"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="223"/>
+      <c r="X10" s="223"/>
+      <c r="Y10" s="159"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -7343,29 +9017,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="231"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="272"/>
-      <c r="O11" s="272"/>
-      <c r="P11" s="272"/>
-      <c r="Q11" s="272"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="272"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="272"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="213"/>
-      <c r="X11" s="213"/>
-      <c r="Y11" s="133"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="289"/>
+      <c r="O11" s="289"/>
+      <c r="P11" s="289"/>
+      <c r="Q11" s="289"/>
+      <c r="R11" s="289"/>
+      <c r="S11" s="289"/>
+      <c r="T11" s="289"/>
+      <c r="U11" s="289"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="225"/>
+      <c r="X11" s="225"/>
+      <c r="Y11" s="161"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7443,6 +9117,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="N9:U11"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:Y11"/>
     <mergeCell ref="E6:G7"/>
     <mergeCell ref="H6:J7"/>
@@ -7453,14 +9135,6 @@
     <mergeCell ref="E9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="P4:S5"/>
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="N9:U11"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7519,47 +9193,47 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="244" t="s">
+      <c r="C3" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="246"/>
-      <c r="E3" s="279" t="s">
+      <c r="D3" s="280"/>
+      <c r="E3" s="291" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="280"/>
-      <c r="G3" s="278" t="s">
+      <c r="F3" s="292"/>
+      <c r="G3" s="290" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="147"/>
+      <c r="H3" s="132"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="289" t="s">
+      <c r="J3" s="301" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="290" t="s">
+      <c r="K3" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="291"/>
-      <c r="M3" s="291"/>
-      <c r="N3" s="291"/>
-      <c r="O3" s="291"/>
-      <c r="P3" s="291"/>
-      <c r="Q3" s="292"/>
-      <c r="R3" s="289" t="s">
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="301" t="s">
         <v>57</v>
       </c>
       <c r="S3" s="27"/>
-      <c r="T3" s="278" t="s">
+      <c r="T3" s="290" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="147"/>
-      <c r="V3" s="279" t="s">
+      <c r="U3" s="132"/>
+      <c r="V3" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="280"/>
-      <c r="X3" s="281" t="s">
+      <c r="W3" s="292"/>
+      <c r="X3" s="293" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="246"/>
+      <c r="Y3" s="280"/>
       <c r="Z3" s="28"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -7568,31 +9242,31 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="187"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="198"/>
+      <c r="H4" s="199"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="104" t="s">
+      <c r="J4" s="287"/>
+      <c r="K4" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="276"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="287"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="186"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="275"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="87"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="284"/>
+      <c r="W4" s="286"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="129"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -7634,35 +9308,35 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="282" t="s">
+      <c r="C6" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="91"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="88" t="s">
+      <c r="S6" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="287"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="148"/>
+      <c r="Y6" s="299"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -7673,29 +9347,29 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
+      <c r="C7" s="295"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="141"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="212"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="224"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="288"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="300"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -7706,29 +9380,29 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="283"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
+      <c r="C8" s="295"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="211"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="212"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="224"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="288"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="300"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -7739,29 +9413,29 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="283"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="156"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="212"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="223"/>
+      <c r="O9" s="223"/>
+      <c r="P9" s="223"/>
+      <c r="Q9" s="224"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="165"/>
-      <c r="Y9" s="288"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="300"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -7772,29 +9446,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="283"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="156"/>
+      <c r="C10" s="295"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="212"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="223"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="223"/>
+      <c r="Q10" s="224"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="165"/>
-      <c r="U10" s="165"/>
-      <c r="V10" s="165"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="288"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="300"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -7805,29 +9479,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="284"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="285"/>
-      <c r="H11" s="285"/>
-      <c r="I11" s="286"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
+      <c r="H11" s="297"/>
+      <c r="I11" s="298"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="213"/>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="214"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="226"/>
       <c r="R11" s="36"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="271"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="179"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="179"/>
+      <c r="X11" s="179"/>
+      <c r="Y11" s="254"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8009,43 +9683,43 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="293" t="s">
+      <c r="C4" s="311" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="69"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="250" t="s">
+      <c r="M4" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="250"/>
+      <c r="N4" s="262"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="250" t="s">
+      <c r="R4" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="250"/>
+      <c r="S4" s="262"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69" t="s">
+      <c r="W4" s="113"/>
+      <c r="X4" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="Y4" s="296"/>
+      <c r="Y4" s="305"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -8054,31 +9728,31 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="293"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="156"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="250"/>
-      <c r="N5" s="250"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="262"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="96" t="s">
+      <c r="P5" s="98" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="22"/>
-      <c r="R5" s="250"/>
-      <c r="S5" s="250"/>
+      <c r="R5" s="262"/>
+      <c r="S5" s="262"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="296"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="305"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -8087,29 +9761,29 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="293"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="250"/>
-      <c r="N6" s="250"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="97"/>
+      <c r="P6" s="99"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="250"/>
-      <c r="S6" s="250"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="262"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="296"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="305"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
@@ -8118,33 +9792,33 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="293"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="298" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
+      <c r="M7" s="262"/>
+      <c r="N7" s="262"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="82" t="s">
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="84"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="296"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="305"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -8155,10 +9829,10 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="293"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -8168,20 +9842,20 @@
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="299"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
+      <c r="L8" s="309"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="154"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="296"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="305"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -8192,35 +9866,35 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="293"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="88" t="s">
+      <c r="C9" s="311"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="88" t="s">
+      <c r="H9" s="148"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="120"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="250"/>
-      <c r="N9" s="250"/>
-      <c r="O9" s="183" t="s">
+      <c r="K9" s="148"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="230"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="250"/>
-      <c r="S9" s="250"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="296"/>
+      <c r="P9" s="242"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="262"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="305"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -8231,29 +9905,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="293"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="250"/>
-      <c r="N10" s="250"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="250"/>
-      <c r="S10" s="250"/>
-      <c r="T10" s="154"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="296"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="262"/>
+      <c r="S10" s="262"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="305"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -8264,29 +9938,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="294"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="114"/>
+      <c r="C11" s="312"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="306"/>
+      <c r="F11" s="306"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="263"/>
       <c r="N11" s="263"/>
-      <c r="O11" s="231"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="153"/>
+      <c r="O11" s="243"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
       <c r="R11" s="263"/>
       <c r="S11" s="263"/>
-      <c r="T11" s="300"/>
-      <c r="U11" s="286"/>
-      <c r="V11" s="295"/>
-      <c r="W11" s="295"/>
-      <c r="X11" s="295"/>
-      <c r="Y11" s="297"/>
+      <c r="T11" s="310"/>
+      <c r="U11" s="298"/>
+      <c r="V11" s="306"/>
+      <c r="W11" s="306"/>
+      <c r="X11" s="306"/>
+      <c r="Y11" s="307"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8364,6 +10038,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="E4:F11"/>
+    <mergeCell ref="H4:K7"/>
+    <mergeCell ref="M4:N11"/>
+    <mergeCell ref="R4:S11"/>
     <mergeCell ref="X4:Y11"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="L7:L8"/>
@@ -8372,11 +10051,6 @@
     <mergeCell ref="J9:L11"/>
     <mergeCell ref="O9:Q11"/>
     <mergeCell ref="V4:W11"/>
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="E4:F11"/>
-    <mergeCell ref="H4:K7"/>
-    <mergeCell ref="M4:N11"/>
-    <mergeCell ref="R4:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/house_view.xlsx
+++ b/house_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="27795" windowHeight="11070" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="27795" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="кухня" sheetId="1" r:id="rId1"/>
@@ -1349,6 +1349,129 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,40 +1496,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1463,88 +1562,85 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,124 +1691,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,6 +1922,93 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1922,91 +2024,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,9 +2042,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2072,12 +2087,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2088,12 +2109,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2129,118 +2144,103 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2544,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD12"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2557,13 +2557,13 @@
     <col min="31" max="16384" width="6.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC1" s="2"/>
       <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2592,39 +2592,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="109"/>
-      <c r="J3" s="108" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="108"/>
-      <c r="L3" s="110" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="118" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="119"/>
+      <c r="Q3" s="90"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -2641,39 +2644,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45</v>
+      </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="122" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="122" t="s">
+      <c r="I4" s="96"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
-      <c r="S4" s="102" t="s">
+      <c r="M4" s="96"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="92"/>
+      <c r="S4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="124" t="s">
+      <c r="T4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="102" t="s">
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="69" t="s">
         <v>15</v>
       </c>
       <c r="Y4" s="11"/>
@@ -2683,35 +2689,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>90</v>
+      </c>
       <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="104" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="104" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="121"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="103"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="94"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="70"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="9"/>
       <c r="AC5" s="13"/>
@@ -2719,22 +2728,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>135</v>
+      </c>
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="L6" s="114" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="L6" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="115"/>
-      <c r="P6" s="80" t="s">
+      <c r="M6" s="86"/>
+      <c r="P6" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="104"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="9"/>
       <c r="AC6" s="15"/>
@@ -2742,25 +2754,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>180</v>
+      </c>
       <c r="B7" s="6">
         <v>4</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="96" t="s">
+      <c r="D7" s="126"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="116"/>
-      <c r="M7" s="117"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="121"/>
-      <c r="U7" s="98" t="s">
+      <c r="L7" s="87"/>
+      <c r="M7" s="88"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="94"/>
+      <c r="U7" s="131" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="11"/>
@@ -2770,35 +2785,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>225</v>
+      </c>
       <c r="B8" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="97"/>
-      <c r="J8" s="64" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="130"/>
+      <c r="J8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="86"/>
-      <c r="N8" s="100" t="s">
+      <c r="K8" s="119"/>
+      <c r="N8" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="101"/>
+      <c r="O8" s="134"/>
       <c r="Q8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="99"/>
-      <c r="V8" s="70" t="s">
+      <c r="U8" s="132"/>
+      <c r="V8" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="71"/>
+      <c r="W8" s="112"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="9"/>
       <c r="AC8" s="18"/>
@@ -2806,118 +2824,127 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>270</v>
+      </c>
       <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="78" t="s">
+      <c r="I9" s="78"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78" t="s">
+      <c r="M9" s="115"/>
+      <c r="N9" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="78"/>
-      <c r="P9" s="80" t="s">
+      <c r="O9" s="115"/>
+      <c r="P9" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="64" t="s">
+      <c r="Q9" s="104"/>
+      <c r="R9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="S9" s="86"/>
-      <c r="T9" s="64" t="s">
+      <c r="S9" s="119"/>
+      <c r="T9" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="64" t="s">
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" s="65"/>
+      <c r="Y9" s="106"/>
       <c r="Z9" s="9"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>315</v>
+      </c>
       <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="67"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="108"/>
       <c r="Z10" s="9"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>360</v>
+      </c>
       <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="110"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="21">
         <v>0</v>
       </c>
@@ -2988,8 +3015,93 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1">
+        <v>180</v>
+      </c>
+      <c r="H13" s="1">
+        <v>225</v>
+      </c>
+      <c r="I13" s="1">
+        <v>270</v>
+      </c>
+      <c r="J13" s="1">
+        <v>315</v>
+      </c>
+      <c r="K13" s="1">
+        <v>360</v>
+      </c>
+      <c r="L13" s="1">
+        <v>405</v>
+      </c>
+      <c r="M13" s="1">
+        <v>450</v>
+      </c>
+      <c r="N13" s="1">
+        <v>495</v>
+      </c>
+      <c r="O13" s="1">
+        <v>540</v>
+      </c>
+      <c r="P13" s="1">
+        <v>585</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>630</v>
+      </c>
+      <c r="R13" s="1">
+        <v>675</v>
+      </c>
+      <c r="S13" s="1">
+        <v>720</v>
+      </c>
+      <c r="T13" s="1">
+        <v>765</v>
+      </c>
+      <c r="U13" s="1">
+        <v>810</v>
+      </c>
+      <c r="V13" s="1">
+        <v>855</v>
+      </c>
+      <c r="W13" s="1">
+        <v>900</v>
+      </c>
+      <c r="X13" s="1">
+        <v>945</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="L9:M11"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:W11"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="J8:K11"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="L5:M5"/>
@@ -3006,20 +3118,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:W5"/>
     <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="L9:M11"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:W11"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="J8:K11"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3121,26 +3219,26 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="186" t="s">
+      <c r="M4" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="186" t="s">
+      <c r="R4" s="191" t="s">
         <v>110</v>
       </c>
-      <c r="S4" s="187"/>
+      <c r="S4" s="192"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="V4" s="81"/>
-      <c r="W4" s="80" t="s">
+      <c r="V4" s="104"/>
+      <c r="W4" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="X4" s="81"/>
+      <c r="X4" s="104"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
@@ -3160,18 +3258,18 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
       <c r="Q5" s="47"/>
-      <c r="R5" s="284"/>
-      <c r="S5" s="286"/>
+      <c r="R5" s="290"/>
+      <c r="S5" s="292"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="121"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="94"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -3191,10 +3289,10 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="284"/>
-      <c r="N6" s="285"/>
-      <c r="O6" s="285"/>
-      <c r="P6" s="285"/>
+      <c r="M6" s="290"/>
+      <c r="N6" s="291"/>
+      <c r="O6" s="291"/>
+      <c r="P6" s="291"/>
       <c r="Q6" s="47"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
@@ -3220,25 +3318,25 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="186" t="s">
+      <c r="L7" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="213"/>
-      <c r="N7" s="213"/>
-      <c r="O7" s="213"/>
-      <c r="P7" s="213"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
       <c r="Q7" s="47"/>
-      <c r="R7" s="80" t="s">
+      <c r="R7" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="S7" s="81"/>
+      <c r="S7" s="104"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="80" t="s">
+      <c r="U7" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="81"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="104"/>
       <c r="Y7" s="29"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
@@ -3248,30 +3346,30 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="294" t="s">
+      <c r="C8" s="299" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="215"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="220"/>
+      <c r="O8" s="220"/>
+      <c r="P8" s="220"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="83"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="92"/>
       <c r="T8" s="22"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="83"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="92"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
@@ -3283,32 +3381,32 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="295"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="217"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="217"/>
+      <c r="L9" s="195"/>
+      <c r="M9" s="222"/>
+      <c r="N9" s="222"/>
+      <c r="O9" s="222"/>
+      <c r="P9" s="222"/>
       <c r="Q9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="R9" s="84"/>
-      <c r="S9" s="85"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="118"/>
       <c r="T9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="179"/>
-      <c r="X9" s="85"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="118"/>
       <c r="Y9" s="50" t="s">
         <v>61</v>
       </c>
@@ -3323,14 +3421,14 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="295"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
       <c r="K10" s="45"/>
       <c r="L10" s="27"/>
       <c r="M10" s="30"/>
@@ -3356,14 +3454,14 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="296"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="297"/>
-      <c r="I11" s="297"/>
-      <c r="J11" s="297"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
       <c r="K11" s="47"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -3551,39 +3649,39 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="313" t="s">
+      <c r="C4" s="318" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="186" t="s">
+      <c r="I4" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="187"/>
-      <c r="K4" s="186" t="s">
+      <c r="J4" s="192"/>
+      <c r="K4" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="187"/>
+      <c r="L4" s="192"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="25"/>
-      <c r="Q4" s="113" t="s">
+      <c r="Q4" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="113"/>
+      <c r="R4" s="84"/>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="259" t="s">
+      <c r="X4" s="277" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="259"/>
+      <c r="Y4" s="277"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -3592,33 +3690,33 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="314"/>
-      <c r="D5" s="189"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="194"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="316" t="s">
+      <c r="G5" s="321" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="188"/>
-      <c r="L5" s="189"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="194"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="316" t="s">
+      <c r="N5" s="321" t="s">
         <v>117</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="259"/>
-      <c r="Y5" s="259"/>
+      <c r="X5" s="277"/>
+      <c r="Y5" s="277"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -3627,29 +3725,29 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="314"/>
-      <c r="D6" s="189"/>
+      <c r="C6" s="319"/>
+      <c r="D6" s="194"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="317"/>
+      <c r="G6" s="322"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="189"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="194"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="317"/>
+      <c r="N6" s="322"/>
       <c r="O6" s="22"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="259"/>
-      <c r="Y6" s="259"/>
+      <c r="X6" s="277"/>
+      <c r="Y6" s="277"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
@@ -3658,33 +3756,33 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="314"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="124" t="s">
+      <c r="C7" s="319"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="317"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="322"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="189"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="194"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="317"/>
-      <c r="O7" s="124" t="s">
+      <c r="N7" s="322"/>
+      <c r="O7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="259"/>
-      <c r="Y7" s="259"/>
+      <c r="X7" s="277"/>
+      <c r="Y7" s="277"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
@@ -3693,31 +3791,31 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="314"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="317"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="322"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="286"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="292"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="124" t="s">
+      <c r="N8" s="322"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="259"/>
-      <c r="Y8" s="259"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="277"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -3726,31 +3824,31 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="314"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="317"/>
-      <c r="H9" s="186" t="s">
+      <c r="C9" s="319"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="322"/>
+      <c r="H9" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="259"/>
-      <c r="Y9" s="259"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="322"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="173"/>
+      <c r="X9" s="277"/>
+      <c r="Y9" s="277"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -3761,29 +3859,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="314"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="317"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="317"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="139"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="259"/>
-      <c r="Y10" s="259"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="322"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="322"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="173"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -3794,29 +3892,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="315"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="310"/>
-      <c r="F11" s="298"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="217"/>
-      <c r="L11" s="217"/>
-      <c r="M11" s="191"/>
-      <c r="N11" s="318"/>
-      <c r="O11" s="310"/>
-      <c r="P11" s="297"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="310"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="297"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="298"/>
-      <c r="X11" s="259"/>
-      <c r="Y11" s="259"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="222"/>
+      <c r="J11" s="222"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="222"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="317"/>
+      <c r="P11" s="302"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="317"/>
+      <c r="T11" s="302"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="302"/>
+      <c r="W11" s="303"/>
+      <c r="X11" s="277"/>
+      <c r="Y11" s="277"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3997,34 +4095,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="126"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
-      <c r="N4" s="124" t="s">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
+      <c r="N4" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="126"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="124" t="s">
+      <c r="S4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="126"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="99"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="319" t="s">
+      <c r="X4" s="324" t="s">
         <v>57</v>
       </c>
       <c r="Y4" s="29"/>
@@ -4037,26 +4135,26 @@
         <v>2</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="129"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="141"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="129"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="173"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="102"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="139"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="141"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="173"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="320"/>
+      <c r="X5" s="325"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
@@ -4072,20 +4170,20 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="141"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="173"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="141"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="173"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
@@ -4098,38 +4196,38 @@
         <v>4</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="124" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="125"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="124" t="s">
+      <c r="N7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124" t="s">
+      <c r="O7" s="98"/>
+      <c r="P7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="Q7" s="125"/>
+      <c r="Q7" s="98"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="129"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="124" t="s">
+      <c r="X7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="Y7" s="321"/>
+      <c r="Y7" s="326"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
@@ -4139,28 +4237,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="172"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="140"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="172"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="322"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="327"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
@@ -4170,32 +4268,32 @@
         <v>6</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="124" t="s">
+      <c r="D9" s="171"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="140"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="172"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="124" t="s">
+      <c r="S9" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="126"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="139"/>
-      <c r="Y9" s="322"/>
+      <c r="X9" s="171"/>
+      <c r="Y9" s="327"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
@@ -4205,28 +4303,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="139"/>
-      <c r="Q10" s="140"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="129"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="139"/>
-      <c r="Y10" s="322"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="327"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -4238,28 +4336,28 @@
         <v>8</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="D11" s="310"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="310"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="297"/>
-      <c r="J11" s="297"/>
-      <c r="K11" s="297"/>
-      <c r="L11" s="297"/>
-      <c r="M11" s="298"/>
-      <c r="N11" s="310"/>
-      <c r="O11" s="297"/>
-      <c r="P11" s="310"/>
-      <c r="Q11" s="297"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="317"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
+      <c r="L11" s="302"/>
+      <c r="M11" s="303"/>
+      <c r="N11" s="317"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="317"/>
+      <c r="Q11" s="302"/>
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="310"/>
-      <c r="Y11" s="323"/>
+      <c r="X11" s="317"/>
+      <c r="Y11" s="328"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,17 +4513,17 @@
         <f>A3*45</f>
         <v>0</v>
       </c>
-      <c r="C3" s="343" t="s">
+      <c r="C3" s="331" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="355" t="s">
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="347" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="352"/>
+      <c r="I3" s="348"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
       <c r="L3" s="26"/>
@@ -4458,41 +4556,41 @@
         <f t="shared" ref="B4:B11" si="0">A4*45</f>
         <v>45</v>
       </c>
-      <c r="C4" s="326"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="327"/>
-      <c r="F4" s="327"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="358" t="s">
+      <c r="C4" s="334"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="336"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="343" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="359"/>
-      <c r="L4" s="193" t="s">
+      <c r="K4" s="344"/>
+      <c r="L4" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="193" t="s">
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="114" t="s">
+      <c r="R4" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="S4" s="115"/>
+      <c r="S4" s="86"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
-      <c r="V4" s="229" t="s">
+      <c r="V4" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="230"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="345"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="340"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="60"/>
       <c r="AD4" s="1" t="s">
@@ -4507,29 +4605,29 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C5" s="326"/>
-      <c r="D5" s="327"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="327"/>
-      <c r="G5" s="328"/>
-      <c r="H5" s="283"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="165"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="343"/>
+      <c r="K5" s="344"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="154"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="248"/>
-      <c r="X5" s="248"/>
-      <c r="Y5" s="346"/>
+      <c r="V5" s="252"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="253"/>
+      <c r="Y5" s="341"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="61"/>
       <c r="AD5" s="1" t="s">
@@ -4544,31 +4642,31 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="C6" s="326"/>
-      <c r="D6" s="327"/>
-      <c r="E6" s="327"/>
-      <c r="F6" s="327"/>
-      <c r="G6" s="328"/>
-      <c r="H6" s="354" t="s">
+      <c r="C6" s="334"/>
+      <c r="D6" s="335"/>
+      <c r="E6" s="335"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="349" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="353"/>
-      <c r="J6" s="358"/>
-      <c r="K6" s="359"/>
+      <c r="I6" s="350"/>
+      <c r="J6" s="343"/>
+      <c r="K6" s="344"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="165"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="154"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="247"/>
-      <c r="W6" s="248"/>
-      <c r="X6" s="248"/>
-      <c r="Y6" s="346"/>
+      <c r="V6" s="252"/>
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="341"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="55"/>
       <c r="AD6" s="1" t="s">
@@ -4583,31 +4681,31 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="C7" s="326"/>
-      <c r="D7" s="327"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="327"/>
-      <c r="G7" s="328"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="358"/>
-      <c r="K7" s="359"/>
-      <c r="L7" s="186" t="s">
+      <c r="C7" s="334"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="336"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="343"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="213"/>
-      <c r="N7" s="187"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="192"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="165"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="154"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
-      <c r="V7" s="247"/>
-      <c r="W7" s="248"/>
-      <c r="X7" s="248"/>
-      <c r="Y7" s="346"/>
+      <c r="V7" s="252"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="341"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="59"/>
       <c r="AD7" s="1" t="s">
@@ -4622,31 +4720,31 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="C8" s="326"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="327"/>
-      <c r="F8" s="327"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="358"/>
-      <c r="K8" s="359"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="285"/>
-      <c r="N8" s="286"/>
-      <c r="O8" s="356" t="s">
+      <c r="C8" s="334"/>
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="343"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="329" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="357"/>
-      <c r="Q8" s="340"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="165"/>
+      <c r="P8" s="330"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="154"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
-      <c r="V8" s="247"/>
-      <c r="W8" s="248"/>
-      <c r="X8" s="248"/>
-      <c r="Y8" s="346"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="253"/>
+      <c r="X8" s="253"/>
+      <c r="Y8" s="341"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="63"/>
       <c r="AD8" s="1" t="s">
@@ -4661,33 +4759,33 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="C9" s="326"/>
-      <c r="D9" s="327"/>
-      <c r="E9" s="327"/>
-      <c r="F9" s="327"/>
-      <c r="G9" s="328"/>
-      <c r="H9" s="348" t="s">
+      <c r="C9" s="334"/>
+      <c r="D9" s="335"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="336"/>
+      <c r="H9" s="351" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="349"/>
-      <c r="J9" s="358"/>
-      <c r="K9" s="359"/>
-      <c r="L9" s="156" t="s">
+      <c r="I9" s="352"/>
+      <c r="J9" s="343"/>
+      <c r="K9" s="344"/>
+      <c r="L9" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="222"/>
-      <c r="N9" s="222"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="165"/>
+      <c r="M9" s="227"/>
+      <c r="N9" s="227"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="227"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="152"/>
+      <c r="S9" s="154"/>
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
-      <c r="V9" s="247"/>
-      <c r="W9" s="248"/>
-      <c r="X9" s="248"/>
-      <c r="Y9" s="346"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="341"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="57"/>
       <c r="AD9" s="1" t="s">
@@ -4702,31 +4800,31 @@
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="C10" s="326"/>
-      <c r="D10" s="327"/>
-      <c r="E10" s="327"/>
-      <c r="F10" s="327"/>
-      <c r="G10" s="328"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="359"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="180" t="s">
+      <c r="C10" s="334"/>
+      <c r="D10" s="335"/>
+      <c r="E10" s="335"/>
+      <c r="F10" s="335"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="343"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="229"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="181"/>
-      <c r="V10" s="247"/>
-      <c r="W10" s="248"/>
-      <c r="X10" s="248"/>
-      <c r="Y10" s="346"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="252"/>
+      <c r="W10" s="253"/>
+      <c r="X10" s="253"/>
+      <c r="Y10" s="341"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="62"/>
       <c r="AD10" s="1" t="s">
@@ -4741,29 +4839,29 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="C11" s="344"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
-      <c r="G11" s="337"/>
-      <c r="H11" s="350"/>
-      <c r="I11" s="351"/>
-      <c r="J11" s="360"/>
-      <c r="K11" s="361"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="226"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="184"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="232"/>
-      <c r="W11" s="233"/>
-      <c r="X11" s="233"/>
-      <c r="Y11" s="347"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+      <c r="G11" s="339"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="354"/>
+      <c r="J11" s="345"/>
+      <c r="K11" s="346"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="230"/>
+      <c r="P11" s="230"/>
+      <c r="Q11" s="231"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="157"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="342"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4935,6 +5033,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:G11"/>
+    <mergeCell ref="V4:Y11"/>
+    <mergeCell ref="J4:K11"/>
+    <mergeCell ref="T10:U11"/>
+    <mergeCell ref="H3:I5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="H9:I11"/>
     <mergeCell ref="L9:Q11"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="L7:N8"/>
@@ -4942,13 +5047,6 @@
     <mergeCell ref="M4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C3:G11"/>
-    <mergeCell ref="V4:Y11"/>
-    <mergeCell ref="J4:K11"/>
-    <mergeCell ref="T10:U11"/>
-    <mergeCell ref="H3:I5"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="H9:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4959,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4971,7 +5069,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1" s="338"/>
+      <c r="N1" s="64"/>
       <c r="AC1" s="58"/>
       <c r="AD1" s="1" t="s">
         <v>0</v>
@@ -4990,7 +5088,7 @@
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="339"/>
+      <c r="N2" s="65"/>
       <c r="O2" s="23"/>
       <c r="P2" s="23"/>
       <c r="Q2" s="23"/>
@@ -5054,36 +5152,36 @@
         <v>45</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="335" t="s">
+      <c r="D4" s="355" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="325"/>
+      <c r="E4" s="357"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="335" t="s">
+      <c r="G4" s="355" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="325"/>
+      <c r="H4" s="357"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="335" t="s">
+      <c r="J4" s="355" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="325"/>
+      <c r="K4" s="357"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="335" t="s">
+      <c r="M4" s="355" t="s">
         <v>124</v>
       </c>
-      <c r="N4" s="324"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="324"/>
-      <c r="Q4" s="324"/>
-      <c r="R4" s="324"/>
-      <c r="S4" s="325"/>
+      <c r="N4" s="356"/>
+      <c r="O4" s="356"/>
+      <c r="P4" s="356"/>
+      <c r="Q4" s="356"/>
+      <c r="R4" s="356"/>
+      <c r="S4" s="357"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="335" t="s">
+      <c r="U4" s="355" t="s">
         <v>125</v>
       </c>
-      <c r="V4" s="324"/>
-      <c r="W4" s="325"/>
+      <c r="V4" s="356"/>
+      <c r="W4" s="357"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="28"/>
@@ -5101,26 +5199,26 @@
         <v>90</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="328"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="336"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="333"/>
-      <c r="H5" s="328"/>
+      <c r="G5" s="358"/>
+      <c r="H5" s="336"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="333"/>
-      <c r="K5" s="328"/>
-      <c r="L5" s="340"/>
-      <c r="M5" s="333"/>
-      <c r="N5" s="327"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="327"/>
-      <c r="Q5" s="327"/>
-      <c r="R5" s="327"/>
-      <c r="S5" s="328"/>
+      <c r="J5" s="358"/>
+      <c r="K5" s="336"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="358"/>
+      <c r="N5" s="335"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="335"/>
+      <c r="R5" s="335"/>
+      <c r="S5" s="336"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="333"/>
-      <c r="V5" s="327"/>
-      <c r="W5" s="328"/>
+      <c r="U5" s="358"/>
+      <c r="V5" s="335"/>
+      <c r="W5" s="336"/>
       <c r="X5" s="22"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
@@ -5138,26 +5236,26 @@
         <v>135</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="333"/>
-      <c r="E6" s="328"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="336"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="328"/>
+      <c r="G6" s="358"/>
+      <c r="H6" s="336"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="334"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="340"/>
-      <c r="M6" s="334"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="329"/>
-      <c r="P6" s="329"/>
-      <c r="Q6" s="329"/>
-      <c r="R6" s="329"/>
-      <c r="S6" s="330"/>
+      <c r="J6" s="359"/>
+      <c r="K6" s="361"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="359"/>
+      <c r="N6" s="360"/>
+      <c r="O6" s="360"/>
+      <c r="P6" s="360"/>
+      <c r="Q6" s="360"/>
+      <c r="R6" s="360"/>
+      <c r="S6" s="361"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="334"/>
-      <c r="V6" s="329"/>
-      <c r="W6" s="330"/>
+      <c r="U6" s="359"/>
+      <c r="V6" s="360"/>
+      <c r="W6" s="361"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28"/>
@@ -5174,26 +5272,26 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="C7" s="341"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="328"/>
-      <c r="F7" s="340"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="328"/>
-      <c r="I7" s="340"/>
-      <c r="J7" s="340"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="358"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="358"/>
+      <c r="H7" s="336"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="340"/>
-      <c r="M7" s="340"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="340"/>
-      <c r="P7" s="340"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="340"/>
-      <c r="S7" s="340"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="340"/>
-      <c r="V7" s="340"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
       <c r="Y7" s="29"/>
@@ -5211,35 +5309,35 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="C8" s="341"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="340"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="340"/>
-      <c r="J8" s="335" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="359"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="359"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="355" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="325"/>
-      <c r="L8" s="342"/>
-      <c r="M8" s="333" t="s">
+      <c r="K8" s="357"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="358" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="327"/>
-      <c r="O8" s="328"/>
-      <c r="P8" s="342"/>
-      <c r="Q8" s="335" t="s">
+      <c r="N8" s="335"/>
+      <c r="O8" s="336"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="355" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="324"/>
-      <c r="S8" s="325"/>
+      <c r="R8" s="356"/>
+      <c r="S8" s="357"/>
       <c r="T8" s="30"/>
-      <c r="U8" s="335" t="s">
+      <c r="U8" s="355" t="s">
         <v>128</v>
       </c>
-      <c r="V8" s="324"/>
-      <c r="W8" s="325"/>
+      <c r="V8" s="356"/>
+      <c r="W8" s="357"/>
       <c r="X8" s="22"/>
       <c r="Y8" s="29"/>
       <c r="Z8" s="28"/>
@@ -5257,26 +5355,26 @@
         <v>270</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="340"/>
-      <c r="E9" s="340"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="333"/>
-      <c r="K9" s="328"/>
+      <c r="J9" s="358"/>
+      <c r="K9" s="336"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="333"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="328"/>
-      <c r="P9" s="340"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="327"/>
-      <c r="S9" s="328"/>
-      <c r="T9" s="340"/>
-      <c r="U9" s="333"/>
-      <c r="V9" s="327"/>
-      <c r="W9" s="328"/>
+      <c r="M9" s="358"/>
+      <c r="N9" s="335"/>
+      <c r="O9" s="336"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="358"/>
+      <c r="R9" s="335"/>
+      <c r="S9" s="336"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="358"/>
+      <c r="V9" s="335"/>
+      <c r="W9" s="336"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="29"/>
       <c r="Z9" s="28"/>
@@ -5294,26 +5392,26 @@
         <v>315</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="340"/>
-      <c r="E10" s="340"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="340"/>
-      <c r="H10" s="340"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="334"/>
-      <c r="K10" s="330"/>
+      <c r="J10" s="359"/>
+      <c r="K10" s="361"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="334"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="330"/>
-      <c r="P10" s="340"/>
-      <c r="Q10" s="334"/>
-      <c r="R10" s="329"/>
-      <c r="S10" s="330"/>
-      <c r="T10" s="340"/>
-      <c r="U10" s="334"/>
-      <c r="V10" s="329"/>
-      <c r="W10" s="330"/>
+      <c r="M10" s="359"/>
+      <c r="N10" s="360"/>
+      <c r="O10" s="361"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="359"/>
+      <c r="R10" s="360"/>
+      <c r="S10" s="361"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="359"/>
+      <c r="V10" s="360"/>
+      <c r="W10" s="361"/>
       <c r="X10" s="22"/>
       <c r="Y10" s="29"/>
       <c r="Z10" s="28"/>
@@ -5524,15 +5622,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="G4:H8"/>
+    <mergeCell ref="M8:O10"/>
+    <mergeCell ref="Q8:S10"/>
     <mergeCell ref="U8:W10"/>
     <mergeCell ref="M4:S6"/>
     <mergeCell ref="J4:K6"/>
     <mergeCell ref="J8:K10"/>
     <mergeCell ref="U4:W6"/>
-    <mergeCell ref="D4:E8"/>
-    <mergeCell ref="G4:H8"/>
-    <mergeCell ref="M8:O10"/>
-    <mergeCell ref="Q8:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5544,7 +5642,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="C12" sqref="C12:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6149,13 +6247,13 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="132"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
@@ -6186,22 +6284,22 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="126"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
@@ -6221,26 +6319,26 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="142" t="s">
+      <c r="C5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="174" t="s">
         <v>46</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="176" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="22"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="141"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="173"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="144" t="s">
+      <c r="R5" s="176" t="s">
         <v>47</v>
       </c>
       <c r="S5" s="22"/>
@@ -6249,7 +6347,7 @@
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
-      <c r="Y5" s="146" t="s">
+      <c r="Y5" s="135" t="s">
         <v>46</v>
       </c>
       <c r="Z5" s="28"/>
@@ -6262,31 +6360,31 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="143"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="175"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="145"/>
+      <c r="K6" s="177"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="141"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="173"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="145"/>
+      <c r="R6" s="177"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="80" t="s">
+      <c r="T6" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="81"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="104"/>
       <c r="X6" s="22"/>
-      <c r="Y6" s="147"/>
+      <c r="Y6" s="136"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -6297,33 +6395,33 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="150" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="151"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="129"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="120"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="156" t="s">
+      <c r="T7" s="93"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="157"/>
+      <c r="Y7" s="146"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -6334,13 +6432,13 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="153"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -6355,8 +6453,8 @@
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="158"/>
-      <c r="Y8" s="159"/>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="148"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -6367,37 +6465,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="153"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
       <c r="J9" s="22"/>
       <c r="K9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="86"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="119"/>
       <c r="R9" s="19" t="s">
         <v>50</v>
       </c>
       <c r="S9" s="22"/>
-      <c r="T9" s="114" t="s">
+      <c r="T9" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="159"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="148"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -6408,33 +6506,33 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="169" t="s">
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="170"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="169" t="s">
+      <c r="K10" s="159"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="170"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="159"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="148"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -6445,29 +6543,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="161"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="150"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6545,6 +6643,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C3:G11"/>
+    <mergeCell ref="M4:P7"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="R5:R6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="T6:W7"/>
     <mergeCell ref="H7:I11"/>
@@ -6553,11 +6656,6 @@
     <mergeCell ref="T9:W11"/>
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="R10:S11"/>
-    <mergeCell ref="C3:G11"/>
-    <mergeCell ref="M4:P7"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6689,44 +6787,44 @@
         <v>2</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="81"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="193" t="s">
+      <c r="L5" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="195" t="s">
+      <c r="M5" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="196"/>
-      <c r="O5" s="169" t="s">
+      <c r="N5" s="201"/>
+      <c r="O5" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="193" t="s">
+      <c r="P5" s="159"/>
+      <c r="Q5" s="198" t="s">
         <v>57</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="113" t="s">
+      <c r="U5" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="113"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="22"/>
-      <c r="X5" s="156" t="s">
+      <c r="X5" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="157"/>
+      <c r="Y5" s="146"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -6738,28 +6836,28 @@
         <v>3</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="121"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="129"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="201"/>
-      <c r="Q6" s="194"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="199"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="159"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="148"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -6780,10 +6878,10 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="207"/>
+      <c r="P7" s="208"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
@@ -6791,8 +6889,8 @@
       <c r="U7" s="34"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="174"/>
+      <c r="X7" s="178"/>
+      <c r="Y7" s="179"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -6803,11 +6901,11 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="81"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="33"/>
@@ -6823,10 +6921,10 @@
       <c r="N8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="86"/>
+      <c r="P8" s="119"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -6846,41 +6944,41 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="114" t="s">
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="115"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="180" t="s">
+      <c r="M9" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="181"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="87"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="120"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="86"/>
+      <c r="S9" s="119"/>
       <c r="T9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="186" t="s">
+      <c r="U9" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="V9" s="187"/>
+      <c r="V9" s="192"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="156" t="s">
+      <c r="X9" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="157"/>
+      <c r="Y9" s="146"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -6891,30 +6989,30 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="98" t="s">
+      <c r="C10" s="181"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="182"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="87"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="87"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="120"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="120"/>
       <c r="T10" s="22"/>
-      <c r="U10" s="188"/>
-      <c r="V10" s="189"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="194"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="159"/>
+      <c r="X10" s="147"/>
+      <c r="Y10" s="148"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -6925,31 +7023,31 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="185"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="88"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="121"/>
       <c r="Q11" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="88"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="121"/>
       <c r="T11" s="36"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="191"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="196"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="161"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="150"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7144,18 +7242,18 @@
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="193" t="s">
+      <c r="G4" s="198" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="124" t="s">
+      <c r="I4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="193" t="s">
+      <c r="N4" s="198" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="22"/>
@@ -7183,28 +7281,28 @@
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="194"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="141"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="173"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="194"/>
+      <c r="N5" s="199"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="80" t="s">
+      <c r="P5" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="104"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="80" t="s">
+      <c r="U5" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="148"/>
-      <c r="W5" s="148"/>
-      <c r="X5" s="81"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="104"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
@@ -7216,30 +7314,30 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="204" t="s">
+      <c r="C6" s="209" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="101"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="141"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="173"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="121"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="94"/>
       <c r="T6" s="22"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="149"/>
-      <c r="X6" s="121"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="94"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
@@ -7251,18 +7349,18 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="206" t="s">
+      <c r="C7" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="181"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="186"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="129"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -7286,11 +7384,11 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="183"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="188"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -7298,21 +7396,21 @@
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="98" t="s">
+      <c r="O8" s="131" t="s">
         <v>46</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="186" t="s">
+      <c r="T8" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="213"/>
-      <c r="V8" s="213"/>
-      <c r="W8" s="213"/>
-      <c r="X8" s="213"/>
-      <c r="Y8" s="214"/>
+      <c r="U8" s="218"/>
+      <c r="V8" s="218"/>
+      <c r="W8" s="218"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="219"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -7323,37 +7421,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="169" t="s">
+      <c r="C9" s="215"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="170"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="159"/>
       <c r="N9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="99"/>
+      <c r="O9" s="132"/>
       <c r="P9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="156" t="s">
+      <c r="Q9" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="222"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="215"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="215"/>
-      <c r="X9" s="215"/>
-      <c r="Y9" s="216"/>
+      <c r="R9" s="227"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="220"/>
+      <c r="X9" s="220"/>
+      <c r="Y9" s="221"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -7364,33 +7462,33 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="227" t="s">
+      <c r="C10" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="229" t="s">
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="225"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="230"/>
-      <c r="P10" s="231"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="223"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="215"/>
-      <c r="V10" s="215"/>
-      <c r="W10" s="215"/>
-      <c r="X10" s="215"/>
-      <c r="Y10" s="216"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="228"/>
+      <c r="S10" s="229"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="221"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -7401,29 +7499,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="232"/>
-      <c r="O11" s="233"/>
-      <c r="P11" s="234"/>
-      <c r="Q11" s="160"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="226"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="217"/>
-      <c r="W11" s="217"/>
-      <c r="X11" s="217"/>
-      <c r="Y11" s="218"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="226"/>
+      <c r="L11" s="226"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="230"/>
+      <c r="S11" s="231"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="223"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,32 +7711,32 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="93"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="126"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
-      <c r="S4" s="195" t="s">
+      <c r="S4" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="196"/>
+      <c r="T4" s="247"/>
+      <c r="U4" s="247"/>
+      <c r="V4" s="201"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="29"/>
@@ -7655,30 +7753,30 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="224"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="193" t="s">
+      <c r="I5" s="198" t="s">
         <v>57</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="141"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="173"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="193" t="s">
+      <c r="P5" s="198" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="135"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="167"/>
       <c r="W5" s="22"/>
       <c r="X5" s="18" t="s">
         <v>61</v>
@@ -7697,26 +7795,26 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="240"/>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="224"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="229"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="194"/>
+      <c r="I6" s="199"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="141"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="173"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="194"/>
+      <c r="P6" s="199"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="135"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="166"/>
+      <c r="U6" s="166"/>
+      <c r="V6" s="167"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
       <c r="Y6" s="29"/>
@@ -7733,28 +7831,28 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="224"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="22"/>
       <c r="H7" s="33"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="129"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="102"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="135"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="167"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="142" t="s">
+      <c r="X7" s="174" t="s">
         <v>46</v>
       </c>
       <c r="Y7" s="29"/>
@@ -7771,10 +7869,10 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="224"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="229"/>
       <c r="G8" s="22"/>
       <c r="H8" s="33"/>
       <c r="I8" s="22"/>
@@ -7782,10 +7880,10 @@
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="122" t="s">
+      <c r="L8" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="123"/>
+      <c r="M8" s="96"/>
       <c r="N8" s="18" t="s">
         <v>61</v>
       </c>
@@ -7793,14 +7891,14 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="135"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="167"/>
       <c r="W8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="X8" s="143"/>
+      <c r="X8" s="175"/>
       <c r="Y8" s="19" t="s">
         <v>61</v>
       </c>
@@ -7817,41 +7915,41 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="240"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="244" t="s">
+      <c r="C9" s="245"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="229" t="s">
+      <c r="I9" s="86"/>
+      <c r="J9" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="230"/>
-      <c r="L9" s="230"/>
-      <c r="M9" s="230"/>
-      <c r="N9" s="230"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="114" t="s">
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="236"/>
+      <c r="P9" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="98" t="s">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="197"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="180" t="s">
+      <c r="S9" s="202"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="185" t="s">
         <v>81</v>
       </c>
-      <c r="X9" s="207"/>
-      <c r="Y9" s="236"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="241"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -7865,29 +7963,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="245"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="247"/>
-      <c r="K10" s="248"/>
-      <c r="L10" s="248"/>
-      <c r="M10" s="248"/>
-      <c r="N10" s="248"/>
-      <c r="O10" s="249"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="237"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="253"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="240"/>
+      <c r="S10" s="202"/>
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="242"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -7901,29 +7999,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="241"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="233"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="243"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="184"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="239"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="231"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="239"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="157"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="248"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="243"/>
+      <c r="Y11" s="244"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8143,18 +8241,18 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="278" t="s">
+      <c r="C3" s="261" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="131" t="s">
+      <c r="D3" s="262"/>
+      <c r="E3" s="262"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
       <c r="K3" s="27"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
@@ -8178,39 +8276,39 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="281"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="199"/>
-      <c r="K4" s="122" t="s">
+      <c r="C4" s="264"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="264"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="260"/>
+      <c r="M4" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="264"/>
-      <c r="O4" s="180" t="s">
+      <c r="N4" s="260"/>
+      <c r="O4" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="181"/>
-      <c r="Q4" s="180" t="s">
+      <c r="P4" s="186"/>
+      <c r="Q4" s="185" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="181"/>
-      <c r="S4" s="156" t="s">
+      <c r="R4" s="186"/>
+      <c r="S4" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="156" t="s">
+      <c r="T4" s="126"/>
+      <c r="U4" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="93"/>
-      <c r="W4" s="268" t="s">
+      <c r="V4" s="126"/>
+      <c r="W4" s="255" t="s">
         <v>86</v>
       </c>
       <c r="X4" s="39" t="s">
@@ -8229,39 +8327,39 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="270" t="s">
+      <c r="C5" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="100" t="s">
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="122" t="s">
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="264"/>
-      <c r="M5" s="122" t="s">
+      <c r="L5" s="260"/>
+      <c r="M5" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="264"/>
-      <c r="O5" s="283"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="283"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="269"/>
-      <c r="X5" s="268" t="s">
+      <c r="N5" s="260"/>
+      <c r="O5" s="266"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="266"/>
+      <c r="R5" s="217"/>
+      <c r="S5" s="178"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="178"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="256"/>
+      <c r="X5" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="Y5" s="214" t="s">
+      <c r="Y5" s="219" t="s">
         <v>89</v>
       </c>
       <c r="Z5" s="28"/>
@@ -8274,51 +8372,51 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="270" t="s">
+      <c r="C6" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="275" t="s">
+      <c r="D6" s="259"/>
+      <c r="E6" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="272"/>
-      <c r="G6" s="100" t="s">
+      <c r="F6" s="259"/>
+      <c r="G6" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="101"/>
-      <c r="I6" s="100" t="s">
+      <c r="H6" s="134"/>
+      <c r="I6" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="101"/>
-      <c r="K6" s="276" t="s">
+      <c r="J6" s="134"/>
+      <c r="K6" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="276"/>
-      <c r="M6" s="276" t="s">
+      <c r="L6" s="274"/>
+      <c r="M6" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="276"/>
-      <c r="O6" s="277" t="s">
+      <c r="N6" s="274"/>
+      <c r="O6" s="275" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="277"/>
-      <c r="Q6" s="277" t="s">
+      <c r="P6" s="275"/>
+      <c r="Q6" s="275" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="277"/>
-      <c r="S6" s="156" t="s">
+      <c r="R6" s="275"/>
+      <c r="S6" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="93"/>
-      <c r="U6" s="156" t="s">
+      <c r="T6" s="126"/>
+      <c r="U6" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="V6" s="93"/>
-      <c r="W6" s="268" t="s">
+      <c r="V6" s="126"/>
+      <c r="W6" s="255" t="s">
         <v>86</v>
       </c>
-      <c r="X6" s="273"/>
-      <c r="Y6" s="216"/>
+      <c r="X6" s="271"/>
+      <c r="Y6" s="221"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -8329,37 +8427,37 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="259" t="s">
+      <c r="D7" s="277"/>
+      <c r="E7" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="262" t="s">
+      <c r="F7" s="277"/>
+      <c r="G7" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="262"/>
-      <c r="I7" s="262" t="s">
+      <c r="H7" s="267"/>
+      <c r="I7" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="262"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="276"/>
-      <c r="M7" s="276"/>
-      <c r="N7" s="276"/>
-      <c r="O7" s="277"/>
-      <c r="P7" s="277"/>
-      <c r="Q7" s="277"/>
-      <c r="R7" s="277"/>
-      <c r="S7" s="158"/>
-      <c r="T7" s="224"/>
-      <c r="U7" s="158"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="274"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="274"/>
+      <c r="M7" s="274"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="275"/>
+      <c r="P7" s="275"/>
+      <c r="Q7" s="275"/>
+      <c r="R7" s="275"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="147"/>
+      <c r="V7" s="229"/>
+      <c r="W7" s="256"/>
+      <c r="X7" s="256"/>
+      <c r="Y7" s="272"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -8370,31 +8468,31 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="277"/>
-      <c r="P8" s="277"/>
-      <c r="Q8" s="277"/>
-      <c r="R8" s="277"/>
-      <c r="S8" s="158"/>
-      <c r="T8" s="224"/>
-      <c r="U8" s="158"/>
-      <c r="V8" s="224"/>
-      <c r="W8" s="255" t="s">
+      <c r="C8" s="276"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="274"/>
+      <c r="M8" s="274"/>
+      <c r="N8" s="274"/>
+      <c r="O8" s="275"/>
+      <c r="P8" s="275"/>
+      <c r="Q8" s="275"/>
+      <c r="R8" s="275"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="268" t="s">
         <v>94</v>
       </c>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="257"/>
+      <c r="X8" s="269"/>
+      <c r="Y8" s="270"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -8405,35 +8503,35 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="270" t="s">
+      <c r="C9" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="271"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="100" t="s">
+      <c r="D9" s="258"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="276"/>
-      <c r="L9" s="276"/>
-      <c r="M9" s="276"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="277"/>
-      <c r="P9" s="277"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="277"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="255" t="s">
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="229"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="229"/>
+      <c r="W9" s="268" t="s">
         <v>94</v>
       </c>
-      <c r="X9" s="256"/>
-      <c r="Y9" s="257"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="270"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -8444,47 +8542,47 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="258" t="s">
+      <c r="C10" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="259"/>
-      <c r="E10" s="259" t="s">
+      <c r="D10" s="277"/>
+      <c r="E10" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="259"/>
-      <c r="G10" s="262" t="s">
+      <c r="F10" s="277"/>
+      <c r="G10" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262" t="s">
+      <c r="H10" s="267"/>
+      <c r="I10" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="262"/>
-      <c r="K10" s="122" t="s">
+      <c r="J10" s="267"/>
+      <c r="K10" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="264"/>
-      <c r="M10" s="122" t="s">
+      <c r="L10" s="260"/>
+      <c r="M10" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="264"/>
-      <c r="O10" s="104" t="s">
+      <c r="N10" s="260"/>
+      <c r="O10" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="265"/>
-      <c r="Q10" s="104" t="s">
+      <c r="P10" s="281"/>
+      <c r="Q10" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="265"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="224"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="224"/>
-      <c r="W10" s="266" t="s">
+      <c r="R10" s="281"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="229"/>
+      <c r="U10" s="147"/>
+      <c r="V10" s="229"/>
+      <c r="W10" s="282" t="s">
         <v>96</v>
       </c>
-      <c r="X10" s="266"/>
-      <c r="Y10" s="267"/>
+      <c r="X10" s="282"/>
+      <c r="Y10" s="283"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -8495,39 +8593,39 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="260"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="261"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="263"/>
-      <c r="H11" s="263"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="250" t="s">
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="279"/>
+      <c r="G11" s="280"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="280"/>
+      <c r="K11" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="251"/>
-      <c r="M11" s="250" t="s">
+      <c r="L11" s="285"/>
+      <c r="M11" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="251"/>
-      <c r="O11" s="252" t="s">
+      <c r="N11" s="285"/>
+      <c r="O11" s="286" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="253"/>
-      <c r="Q11" s="252" t="s">
+      <c r="P11" s="287"/>
+      <c r="Q11" s="286" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="253"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="226"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="226"/>
-      <c r="W11" s="84" t="s">
+      <c r="R11" s="287"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="231"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="231"/>
+      <c r="W11" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="X11" s="179"/>
-      <c r="Y11" s="254"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="288"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8605,17 +8703,27 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="S6:T11"/>
+    <mergeCell ref="U6:V11"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="C9:F9"/>
@@ -8632,27 +8740,17 @@
     <mergeCell ref="Q6:R9"/>
     <mergeCell ref="S4:T5"/>
     <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="S6:T11"/>
-    <mergeCell ref="U6:V11"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8744,45 +8842,45 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="124" t="s">
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="124" t="s">
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="142" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="174" t="s">
         <v>57</v>
       </c>
       <c r="O4" s="22"/>
-      <c r="P4" s="124" t="s">
+      <c r="P4" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="126"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="99"/>
       <c r="T4" s="22"/>
-      <c r="U4" s="142" t="s">
+      <c r="U4" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="156" t="s">
+      <c r="V4" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="W4" s="222"/>
-      <c r="X4" s="222"/>
-      <c r="Y4" s="157"/>
+      <c r="W4" s="227"/>
+      <c r="X4" s="227"/>
+      <c r="Y4" s="146"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -8791,29 +8889,29 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="176"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="143"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="175"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="129"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="22"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="223"/>
-      <c r="X5" s="223"/>
-      <c r="Y5" s="159"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="228"/>
+      <c r="X5" s="228"/>
+      <c r="Y5" s="148"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="13"/>
       <c r="AD5" s="1" t="s">
@@ -8824,23 +8922,23 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="186" t="s">
+      <c r="C6" s="181"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="213"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="186" t="s">
+      <c r="F6" s="218"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="213"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="186" t="s">
+      <c r="I6" s="218"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="213"/>
-      <c r="M6" s="187"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="192"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -8849,10 +8947,10 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="223"/>
-      <c r="X6" s="223"/>
-      <c r="Y6" s="159"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="228"/>
+      <c r="X6" s="228"/>
+      <c r="Y6" s="148"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -8863,35 +8961,35 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="285"/>
-      <c r="M7" s="286"/>
-      <c r="N7" s="244" t="s">
+      <c r="C7" s="181"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="292"/>
+      <c r="N7" s="249" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="180" t="s">
+      <c r="Q7" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="181"/>
-      <c r="S7" s="156" t="s">
+      <c r="R7" s="186"/>
+      <c r="S7" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="222"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="158"/>
-      <c r="W7" s="223"/>
-      <c r="X7" s="223"/>
-      <c r="Y7" s="159"/>
+      <c r="T7" s="227"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="147"/>
+      <c r="W7" s="228"/>
+      <c r="X7" s="228"/>
+      <c r="Y7" s="148"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -8902,8 +9000,8 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="19" t="s">
         <v>61</v>
       </c>
@@ -8917,22 +9015,22 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="287"/>
+      <c r="N8" s="293"/>
       <c r="O8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="283"/>
-      <c r="R8" s="212"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="288"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="223"/>
-      <c r="Y8" s="159"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="294"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="228"/>
+      <c r="X8" s="228"/>
+      <c r="Y8" s="148"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -8943,37 +9041,37 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="80" t="s">
+      <c r="C9" s="181"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="98" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="195" t="s">
+      <c r="H9" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="242"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="242"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="277" t="s">
+      <c r="I9" s="247"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="275" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="277"/>
-      <c r="P9" s="277"/>
-      <c r="Q9" s="277"/>
-      <c r="R9" s="277"/>
-      <c r="S9" s="277"/>
-      <c r="T9" s="277"/>
-      <c r="U9" s="277"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="223"/>
-      <c r="X9" s="223"/>
-      <c r="Y9" s="159"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="275"/>
+      <c r="T9" s="275"/>
+      <c r="U9" s="275"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="228"/>
+      <c r="X9" s="228"/>
+      <c r="Y9" s="148"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -8984,29 +9082,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="277"/>
-      <c r="O10" s="277"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="223"/>
-      <c r="X10" s="223"/>
-      <c r="Y10" s="159"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="275"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="275"/>
+      <c r="T10" s="275"/>
+      <c r="U10" s="275"/>
+      <c r="V10" s="147"/>
+      <c r="W10" s="228"/>
+      <c r="X10" s="228"/>
+      <c r="Y10" s="148"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -9017,17 +9115,17 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="178"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="138"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="248"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="170"/>
       <c r="N11" s="289"/>
       <c r="O11" s="289"/>
       <c r="P11" s="289"/>
@@ -9036,10 +9134,10 @@
       <c r="S11" s="289"/>
       <c r="T11" s="289"/>
       <c r="U11" s="289"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="225"/>
-      <c r="X11" s="225"/>
-      <c r="Y11" s="161"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="230"/>
+      <c r="X11" s="230"/>
+      <c r="Y11" s="150"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9117,14 +9215,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="K4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="N9:U11"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:Y11"/>
     <mergeCell ref="E6:G7"/>
     <mergeCell ref="H6:J7"/>
@@ -9135,6 +9225,14 @@
     <mergeCell ref="E9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="P4:S5"/>
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="K4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="N9:U11"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -9193,47 +9291,47 @@
       <c r="B3" s="25">
         <v>0</v>
       </c>
-      <c r="C3" s="278" t="s">
+      <c r="C3" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="280"/>
-      <c r="E3" s="291" t="s">
+      <c r="D3" s="263"/>
+      <c r="E3" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="292"/>
-      <c r="G3" s="290" t="s">
+      <c r="F3" s="297"/>
+      <c r="G3" s="295" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="301" t="s">
+      <c r="J3" s="306" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="302" t="s">
+      <c r="K3" s="307" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="303"/>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="301" t="s">
+      <c r="L3" s="308"/>
+      <c r="M3" s="308"/>
+      <c r="N3" s="308"/>
+      <c r="O3" s="308"/>
+      <c r="P3" s="308"/>
+      <c r="Q3" s="309"/>
+      <c r="R3" s="306" t="s">
         <v>57</v>
       </c>
       <c r="S3" s="27"/>
-      <c r="T3" s="290" t="s">
+      <c r="T3" s="295" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="132"/>
-      <c r="V3" s="291" t="s">
+      <c r="U3" s="164"/>
+      <c r="V3" s="296" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="292"/>
-      <c r="X3" s="293" t="s">
+      <c r="W3" s="297"/>
+      <c r="X3" s="298" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="280"/>
+      <c r="Y3" s="263"/>
       <c r="Z3" s="28"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -9242,31 +9340,31 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="281"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="199"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="204"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="287"/>
-      <c r="K4" s="100" t="s">
+      <c r="J4" s="293"/>
+      <c r="K4" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="287"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="293"/>
       <c r="S4" s="22"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="284"/>
-      <c r="W4" s="286"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="129"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="290"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="102"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -9308,35 +9406,35 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="299" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="156" t="s">
+      <c r="K6" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="222"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="93"/>
+      <c r="L6" s="227"/>
+      <c r="M6" s="227"/>
+      <c r="N6" s="227"/>
+      <c r="O6" s="227"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="126"/>
       <c r="R6" s="22"/>
-      <c r="S6" s="80" t="s">
+      <c r="S6" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="148"/>
-      <c r="X6" s="148"/>
-      <c r="Y6" s="299"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="304"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="1" t="s">
@@ -9347,29 +9445,29 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="295"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="141"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="173"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="224"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="228"/>
+      <c r="M7" s="228"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="228"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="229"/>
       <c r="R7" s="22"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177"/>
-      <c r="W7" s="177"/>
-      <c r="X7" s="177"/>
-      <c r="Y7" s="300"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="305"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -9380,29 +9478,29 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="295"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="173"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="224"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
+      <c r="N8" s="228"/>
+      <c r="O8" s="228"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="229"/>
       <c r="R8" s="22"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="177"/>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="300"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="305"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -9413,29 +9511,29 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="295"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="141"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="173"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="223"/>
-      <c r="O9" s="223"/>
-      <c r="P9" s="223"/>
-      <c r="Q9" s="224"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="228"/>
+      <c r="N9" s="228"/>
+      <c r="O9" s="228"/>
+      <c r="P9" s="228"/>
+      <c r="Q9" s="229"/>
       <c r="R9" s="22"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="177"/>
-      <c r="U9" s="177"/>
-      <c r="V9" s="177"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="300"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="305"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -9446,29 +9544,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="295"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="141"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="173"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="223"/>
-      <c r="O10" s="223"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="224"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="229"/>
       <c r="R10" s="22"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="300"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="182"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="182"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="305"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -9479,29 +9577,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="296"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="297"/>
-      <c r="I11" s="298"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="303"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="226"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="230"/>
+      <c r="M11" s="230"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="230"/>
+      <c r="P11" s="230"/>
+      <c r="Q11" s="231"/>
       <c r="R11" s="36"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="179"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="179"/>
-      <c r="Y11" s="254"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+      <c r="Y11" s="288"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9683,43 +9781,43 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="311" t="s">
+      <c r="C4" s="310" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="113"/>
+      <c r="F4" s="84"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="126"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="262" t="s">
+      <c r="M4" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="262"/>
+      <c r="N4" s="267"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="262" t="s">
+      <c r="R4" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="S4" s="262"/>
+      <c r="S4" s="267"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
-      <c r="V4" s="113" t="s">
+      <c r="V4" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113" t="s">
+      <c r="W4" s="84"/>
+      <c r="X4" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="Y4" s="305"/>
+      <c r="Y4" s="313"/>
       <c r="Z4" s="28"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -9728,31 +9826,31 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="311"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
+      <c r="C5" s="310"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="141"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="173"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="262"/>
-      <c r="N5" s="262"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="267"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="98" t="s">
+      <c r="P5" s="131" t="s">
         <v>57</v>
       </c>
       <c r="Q5" s="22"/>
-      <c r="R5" s="262"/>
-      <c r="S5" s="262"/>
+      <c r="R5" s="267"/>
+      <c r="S5" s="267"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="305"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="313"/>
       <c r="Z5" s="28"/>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -9761,29 +9859,29 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="311"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="C6" s="310"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="141"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="99"/>
+      <c r="P6" s="132"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="262"/>
+      <c r="R6" s="267"/>
+      <c r="S6" s="267"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="305"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="313"/>
       <c r="Z6" s="28"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
@@ -9792,33 +9890,33 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="311"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="C7" s="310"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="308" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="262"/>
-      <c r="N7" s="262"/>
+      <c r="M7" s="267"/>
+      <c r="N7" s="267"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="262"/>
-      <c r="S7" s="262"/>
-      <c r="T7" s="124" t="s">
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="126"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="305"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="313"/>
       <c r="Z7" s="28"/>
       <c r="AC7" s="16"/>
       <c r="AD7" s="1" t="s">
@@ -9829,10 +9927,10 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="311"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
+      <c r="C8" s="310"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -9842,20 +9940,20 @@
       <c r="K8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="309"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
+      <c r="L8" s="316"/>
+      <c r="M8" s="267"/>
+      <c r="N8" s="267"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="305"/>
+      <c r="R8" s="267"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="173"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="313"/>
       <c r="Z8" s="28"/>
       <c r="AC8" s="18"/>
       <c r="AD8" s="1" t="s">
@@ -9866,35 +9964,35 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="311"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="80" t="s">
+      <c r="C9" s="310"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="80" t="s">
+      <c r="H9" s="137"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="148"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="262"/>
-      <c r="O9" s="195" t="s">
+      <c r="K9" s="137"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="242"/>
-      <c r="Q9" s="196"/>
-      <c r="R9" s="262"/>
-      <c r="S9" s="262"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="305"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" s="201"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="171"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="313"/>
       <c r="Z9" s="28"/>
       <c r="AC9" s="19"/>
       <c r="AD9" s="1" t="s">
@@ -9905,29 +10003,29 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="311"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="262"/>
-      <c r="T10" s="139"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="305"/>
+      <c r="C10" s="310"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="267"/>
+      <c r="N10" s="267"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="267"/>
+      <c r="S10" s="267"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="313"/>
       <c r="Z10" s="28"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="1" t="s">
@@ -9938,29 +10036,29 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="312"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="306"/>
-      <c r="F11" s="306"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="243"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="263"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="310"/>
-      <c r="U11" s="298"/>
-      <c r="V11" s="306"/>
-      <c r="W11" s="306"/>
-      <c r="X11" s="306"/>
-      <c r="Y11" s="307"/>
+      <c r="C11" s="311"/>
+      <c r="D11" s="312"/>
+      <c r="E11" s="312"/>
+      <c r="F11" s="312"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="248"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="280"/>
+      <c r="S11" s="280"/>
+      <c r="T11" s="317"/>
+      <c r="U11" s="303"/>
+      <c r="V11" s="312"/>
+      <c r="W11" s="312"/>
+      <c r="X11" s="312"/>
+      <c r="Y11" s="314"/>
       <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="2:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10038,11 +10136,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:D11"/>
-    <mergeCell ref="E4:F11"/>
-    <mergeCell ref="H4:K7"/>
-    <mergeCell ref="M4:N11"/>
-    <mergeCell ref="R4:S11"/>
     <mergeCell ref="X4:Y11"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="L7:L8"/>
@@ -10051,6 +10144,11 @@
     <mergeCell ref="J9:L11"/>
     <mergeCell ref="O9:Q11"/>
     <mergeCell ref="V4:W11"/>
+    <mergeCell ref="C4:D11"/>
+    <mergeCell ref="E4:F11"/>
+    <mergeCell ref="H4:K7"/>
+    <mergeCell ref="M4:N11"/>
+    <mergeCell ref="R4:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/house_view.xlsx
+++ b/house_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="27795" windowHeight="11070"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="27795" windowHeight="11010" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="кухня" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="135">
   <si>
     <t>хижина</t>
   </si>
@@ -1158,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="363">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2241,6 +2241,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2546,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -5057,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5152,15 +5155,16 @@
         <v>45</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="362" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="357"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="355" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="357"/>
+      <c r="E4" s="362" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="362" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="66"/>
       <c r="I4" s="22"/>
       <c r="J4" s="355" t="s">
         <v>123</v>
@@ -5199,11 +5203,11 @@
         <v>90</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="336"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="22"/>
       <c r="J5" s="358"/>
       <c r="K5" s="336"/>
@@ -5236,11 +5240,11 @@
         <v>135</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="358"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="358"/>
-      <c r="H6" s="336"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="362"/>
+      <c r="F6" s="362"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="22"/>
       <c r="J6" s="359"/>
       <c r="K6" s="361"/>
@@ -5273,11 +5277,11 @@
         <v>180</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="358"/>
-      <c r="E7" s="336"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="66"/>
-      <c r="G7" s="358"/>
-      <c r="H7" s="336"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
       <c r="K7" s="22"/>
@@ -5310,11 +5314,17 @@
         <v>225</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="359"/>
-      <c r="E8" s="361"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="359"/>
-      <c r="H8" s="361"/>
+      <c r="D8" s="362" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="362" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="362" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="355" t="s">
         <v>120</v>
@@ -5355,9 +5365,9 @@
         <v>270</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
       <c r="I9" s="22"/>
@@ -5392,9 +5402,9 @@
         <v>315</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="22"/>
@@ -5621,11 +5631,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D4:E8"/>
-    <mergeCell ref="G4:H8"/>
+  <mergeCells count="13">
     <mergeCell ref="M8:O10"/>
     <mergeCell ref="Q8:S10"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="U8:W10"/>
     <mergeCell ref="M4:S6"/>
     <mergeCell ref="J4:K6"/>
